--- a/Variables_of_Interest.xlsx
+++ b/Variables_of_Interest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3378085-334B-4937-BE6A-6AAC21E0BB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AC14AE-6BBC-4376-AE3B-3D5CAAB0C31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2205" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-420" yWindow="570" windowWidth="20460" windowHeight="11490" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outcome Variables" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="To construct" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -225,6 +226,9 @@
     <author>tc={5E5578F2-6006-4C8E-8405-4F3ED4FA71A1}</author>
     <author>tc={0714BFDF-3258-4C7C-8287-60DFA225999A}</author>
     <author>tc={CA8DC995-3DDE-447C-A1EF-C592378DC24C}</author>
+    <author>tc={0903FEBD-2253-446B-A904-EC193B1A69C8}</author>
+    <author>tc={70DE903C-7939-447B-972E-8EBFA630762D}</author>
+    <author>tc={85E926CA-52D6-49AE-86EB-27C57BE3EF76}</author>
   </authors>
   <commentList>
     <comment ref="D3" authorId="0" shapeId="0" xr:uid="{8D49E584-B106-4B39-A337-4A1D785CA261}">
@@ -340,12 +344,37 @@
     Greater than $200,000</t>
       </text>
     </comment>
+    <comment ref="C308" authorId="14" shapeId="0" xr:uid="{0903FEBD-2253-446B-A904-EC193B1A69C8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    How can this be greater than 1?</t>
+      </text>
+    </comment>
+    <comment ref="C322" authorId="15" shapeId="0" xr:uid="{70DE903C-7939-447B-972E-8EBFA630762D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    2499 or less
+more than 249444</t>
+      </text>
+    </comment>
+    <comment ref="C364" authorId="16" shapeId="0" xr:uid="{85E926CA-52D6-49AE-86EB-27C57BE3EF76}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    226 is 225 or greater</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="1766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5273" uniqueCount="1903">
   <si>
     <t>Wave I</t>
   </si>
@@ -5267,9 +5296,6 @@
     <t>!E,!G</t>
   </si>
   <si>
-    <t>0-87.516</t>
-  </si>
-  <si>
     <t>!G</t>
   </si>
   <si>
@@ -5643,6 +5669,420 @@
   </si>
   <si>
     <t>0-163</t>
+  </si>
+  <si>
+    <t>0.000-0.559</t>
+  </si>
+  <si>
+    <t>996,998</t>
+  </si>
+  <si>
+    <t>9996,9998</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0-0.3006</t>
+  </si>
+  <si>
+    <t>0-0.30</t>
+  </si>
+  <si>
+    <t>0-0.20</t>
+  </si>
+  <si>
+    <t>0-0.40</t>
+  </si>
+  <si>
+    <t>0-0.50</t>
+  </si>
+  <si>
+    <t>0-0.75</t>
+  </si>
+  <si>
+    <t>0-0.05</t>
+  </si>
+  <si>
+    <t>1.4-18.5</t>
+  </si>
+  <si>
+    <t>135.26-240.34</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>SIT95145</t>
+  </si>
+  <si>
+    <t>SIT01145</t>
+  </si>
+  <si>
+    <t>SIT96145</t>
+  </si>
+  <si>
+    <t>146.54-253.45</t>
+  </si>
+  <si>
+    <t>287.37-450.94</t>
+  </si>
+  <si>
+    <t>37.5-130</t>
+  </si>
+  <si>
+    <t>10.27-687.5</t>
+  </si>
+  <si>
+    <t>0-0.6</t>
+  </si>
+  <si>
+    <t>0-0.8</t>
+  </si>
+  <si>
+    <t>0-0.2</t>
+  </si>
+  <si>
+    <t>0-240</t>
+  </si>
+  <si>
+    <t>0-151</t>
+  </si>
+  <si>
+    <t>38-86</t>
+  </si>
+  <si>
+    <t>15.5-71</t>
+  </si>
+  <si>
+    <t>4-140</t>
+  </si>
+  <si>
+    <t>0-108</t>
+  </si>
+  <si>
+    <t>1817-3401</t>
+  </si>
+  <si>
+    <t>0-90826542.02</t>
+  </si>
+  <si>
+    <t>99999998</t>
+  </si>
+  <si>
+    <t>TDM02188</t>
+  </si>
+  <si>
+    <t>0-604000</t>
+  </si>
+  <si>
+    <t>999998</t>
+  </si>
+  <si>
+    <t>0-9</t>
+  </si>
+  <si>
+    <t>CDM07201</t>
+  </si>
+  <si>
+    <t>16.1600-21.3450</t>
+  </si>
+  <si>
+    <t>0.0500-1.0000</t>
+  </si>
+  <si>
+    <t>0.85-2.37</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>1.75-1.80</t>
+  </si>
+  <si>
+    <t>0-156</t>
+  </si>
+  <si>
+    <t>0-482.627698175</t>
+  </si>
+  <si>
+    <t>3.11-236.8</t>
+  </si>
+  <si>
+    <t>37-89</t>
+  </si>
+  <si>
+    <t>17.8-73.1</t>
+  </si>
+  <si>
+    <t>0-182</t>
+  </si>
+  <si>
+    <t>0-277</t>
+  </si>
+  <si>
+    <t>0-314.8</t>
+  </si>
+  <si>
+    <t>998,999</t>
+  </si>
+  <si>
+    <t>9998</t>
+  </si>
+  <si>
+    <t>5-16688</t>
+  </si>
+  <si>
+    <t>99998</t>
+  </si>
+  <si>
+    <t>0-4221541</t>
+  </si>
+  <si>
+    <t>9999999</t>
+  </si>
+  <si>
+    <t>8-7988922</t>
+  </si>
+  <si>
+    <t>0-8005703</t>
+  </si>
+  <si>
+    <t>0-7872553</t>
+  </si>
+  <si>
+    <t>0-16</t>
+  </si>
+  <si>
+    <t>-0.708-0.696</t>
+  </si>
+  <si>
+    <t>-1-1</t>
+  </si>
+  <si>
+    <t>0-1.21</t>
+  </si>
+  <si>
+    <t>589832-3141593</t>
+  </si>
+  <si>
+    <t>9999998</t>
+  </si>
+  <si>
+    <t>0.7-142427.9</t>
+  </si>
+  <si>
+    <t>1277-5587170</t>
+  </si>
+  <si>
+    <t>1.0-10.6</t>
+  </si>
+  <si>
+    <t>0-321647</t>
+  </si>
+  <si>
+    <t>4800-171600</t>
+  </si>
+  <si>
+    <t>999996,999998</t>
+  </si>
+  <si>
+    <t>2499-250001</t>
+  </si>
+  <si>
+    <t>2450-12200</t>
+  </si>
+  <si>
+    <t>0-1300</t>
+  </si>
+  <si>
+    <t>0-500</t>
+  </si>
+  <si>
+    <t>0-380</t>
+  </si>
+  <si>
+    <t>0-90</t>
+  </si>
+  <si>
+    <t>0-0.31</t>
+  </si>
+  <si>
+    <t>0-0.25</t>
+  </si>
+  <si>
+    <t>0-0.275</t>
+  </si>
+  <si>
+    <t>0-0.35</t>
+  </si>
+  <si>
+    <t>0-0.5</t>
+  </si>
+  <si>
+    <t>0-0.7</t>
+  </si>
+  <si>
+    <t>0-0.65</t>
+  </si>
+  <si>
+    <t>0-0.62</t>
+  </si>
+  <si>
+    <t>315-602.4</t>
+  </si>
+  <si>
+    <t>0-0.63</t>
+  </si>
+  <si>
+    <t>46-296.5</t>
+  </si>
+  <si>
+    <t>19.33-1241.2</t>
+  </si>
+  <si>
+    <t>0-0.3</t>
+  </si>
+  <si>
+    <t>0-0.4</t>
+  </si>
+  <si>
+    <t>0-226</t>
+  </si>
+  <si>
+    <t>19-68</t>
+  </si>
+  <si>
+    <t>0-114</t>
+  </si>
+  <si>
+    <t>0-32500000</t>
+  </si>
+  <si>
+    <t>0-707509</t>
+  </si>
+  <si>
+    <t>0-55</t>
+  </si>
+  <si>
+    <t>0.2-3</t>
+  </si>
+  <si>
+    <t>0.1170-0.3745</t>
+  </si>
+  <si>
+    <t>0.0820-0.3096</t>
+  </si>
+  <si>
+    <t>0.2030-0.7590</t>
+  </si>
+  <si>
+    <t>0.0800-0.3030</t>
+  </si>
+  <si>
+    <t>70.4-82.36</t>
+  </si>
+  <si>
+    <t>0.2100-0.4346</t>
+  </si>
+  <si>
+    <t>0.2140-0.5476</t>
+  </si>
+  <si>
+    <t>40.5-68.7</t>
+  </si>
+  <si>
+    <t>0.0515-0.1616</t>
+  </si>
+  <si>
+    <t>0.0317-0.0587</t>
+  </si>
+  <si>
+    <t>0.0845-0.2180</t>
+  </si>
+  <si>
+    <t>0.6140-0.7805</t>
+  </si>
+  <si>
+    <t>0.2050-0.3020</t>
+  </si>
+  <si>
+    <t>0.6074-0.8746</t>
+  </si>
+  <si>
+    <t>0.53-0.854</t>
+  </si>
+  <si>
+    <t>0.11-0.52</t>
+  </si>
+  <si>
+    <t>32.4-59.7</t>
+  </si>
+  <si>
+    <t>-0.94-1.57</t>
+  </si>
+  <si>
+    <t>-1.3-1.57</t>
+  </si>
+  <si>
+    <t>-0.96-1.55</t>
+  </si>
+  <si>
+    <t>0.205-0.796</t>
+  </si>
+  <si>
+    <t>-3.25-0.86</t>
+  </si>
+  <si>
+    <t>-4.3-0.41</t>
+  </si>
+  <si>
+    <t>0.03-0.157</t>
+  </si>
+  <si>
+    <t>-28-78.5</t>
+  </si>
+  <si>
+    <t>-7.6-72.9</t>
+  </si>
+  <si>
+    <t>-31.5-101.6</t>
+  </si>
+  <si>
+    <t>30-99</t>
+  </si>
+  <si>
+    <t>-2.25-18.56</t>
+  </si>
+  <si>
+    <t>19.5-66</t>
+  </si>
+  <si>
+    <t>5.85-25</t>
+  </si>
+  <si>
+    <t>-7.56-16.4</t>
+  </si>
+  <si>
+    <t>0.294-0.525</t>
+  </si>
+  <si>
+    <t>0.32-0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-4</t>
+  </si>
+  <si>
+    <t>0-0.27</t>
+  </si>
+  <si>
+    <t>0-0.18</t>
+  </si>
+  <si>
+    <t>0.4-0.6</t>
+  </si>
+  <si>
+    <t>16.215-21.73</t>
   </si>
 </sst>
 </file>
@@ -6032,7 +6472,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6429,6 +6869,16 @@
   <threadedComment ref="C199" dT="2020-07-23T17:08:53.00" personId="{6945837E-DDA3-4FC5-9829-B18BC73FFED1}" id="{CA8DC995-3DDE-447C-A1EF-C592378DC24C}">
     <text>Greater than $200,000</text>
   </threadedComment>
+  <threadedComment ref="C308" dT="2020-07-27T20:42:41.21" personId="{6945837E-DDA3-4FC5-9829-B18BC73FFED1}" id="{0903FEBD-2253-446B-A904-EC193B1A69C8}">
+    <text>How can this be greater than 1?</text>
+  </threadedComment>
+  <threadedComment ref="C322" dT="2020-07-27T21:01:41.12" personId="{6945837E-DDA3-4FC5-9829-B18BC73FFED1}" id="{70DE903C-7939-447B-972E-8EBFA630762D}">
+    <text>2499 or less
+more than 249444</text>
+  </threadedComment>
+  <threadedComment ref="C364" dT="2020-07-30T20:10:08.92" personId="{6945837E-DDA3-4FC5-9829-B18BC73FFED1}" id="{85E926CA-52D6-49AE-86EB-27C57BE3EF76}">
+    <text>226 is 225 or greater</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -11062,9 +11512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3F7A32-2A24-9143-AA8A-5502F5BABBAF}">
   <dimension ref="A1:AB250"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T231" sqref="T231"/>
+      <selection pane="topRight" activeCell="P77" sqref="P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18003,7 +18453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4B7BF4-0ABF-4825-A6CB-E19C7489DBA9}">
   <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -20450,18 +20900,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A07E6A-7216-4221-A787-8088B6052586}">
-  <dimension ref="A1:F418"/>
+  <dimension ref="A1:F420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="F204" sqref="F204"/>
+    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C359" sqref="C359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.5703125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14" style="107" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="107" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="107" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -20476,7 +20926,7 @@
       <c r="C1" s="107" t="s">
         <v>1484</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="107" t="s">
         <v>1381</v>
       </c>
       <c r="E1" s="33" t="s">
@@ -20498,7 +20948,7 @@
       <c r="C3" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E3" s="106" t="s">
@@ -20515,7 +20965,7 @@
       <c r="C4" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E4" s="106" t="s">
@@ -20529,11 +20979,11 @@
       <c r="B5" s="33" t="s">
         <v>1058</v>
       </c>
-      <c r="C5" s="107" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>1641</v>
+      <c r="C5" s="108" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>1639</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>1423</v>
@@ -20549,7 +20999,7 @@
       <c r="C6" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E6" s="33" t="s">
@@ -20566,7 +21016,7 @@
       <c r="C7" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -20583,7 +21033,7 @@
       <c r="C8" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E8" s="33" t="s">
@@ -20598,9 +21048,9 @@
         <v>1014</v>
       </c>
       <c r="C9" s="107" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D9" s="33" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D9" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E9" s="33" t="s">
@@ -20615,9 +21065,9 @@
         <v>1022</v>
       </c>
       <c r="C10" s="107" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D10" s="33" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D10" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -20634,7 +21084,7 @@
       <c r="C11" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E11" s="33" t="s">
@@ -20649,9 +21099,9 @@
         <v>1061</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D12" s="33" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D12" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E12" s="33" t="s">
@@ -20666,10 +21116,10 @@
         <v>703</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>1641</v>
+        <v>1644</v>
+      </c>
+      <c r="D13" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>1423</v>
@@ -20683,9 +21133,9 @@
         <v>707</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D14" s="33" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D14" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -20700,9 +21150,9 @@
         <v>709</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D15" s="33" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D15" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E15" s="33" t="s">
@@ -20717,9 +21167,9 @@
         <v>711</v>
       </c>
       <c r="C16" s="107" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D16" s="33" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D16" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E16" s="33" t="s">
@@ -20734,9 +21184,9 @@
         <v>713</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D17" s="33" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D17" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E17" s="33" t="s">
@@ -20751,9 +21201,9 @@
         <v>715</v>
       </c>
       <c r="C18" s="107" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D18" s="33" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D18" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E18" s="33" t="s">
@@ -20768,9 +21218,9 @@
         <v>717</v>
       </c>
       <c r="C19" s="107" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D19" s="33" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D19" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -20785,9 +21235,9 @@
         <v>719</v>
       </c>
       <c r="C20" s="107" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D20" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D20" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E20" s="33" t="s">
@@ -20802,9 +21252,9 @@
         <v>721</v>
       </c>
       <c r="C21" s="107" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D21" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D21" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E21" s="33" t="s">
@@ -20819,9 +21269,9 @@
         <v>723</v>
       </c>
       <c r="C22" s="107" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D22" s="33" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D22" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E22" s="33" t="s">
@@ -20836,9 +21286,9 @@
         <v>725</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D23" s="33" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D23" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E23" s="33" t="s">
@@ -20853,9 +21303,9 @@
         <v>727</v>
       </c>
       <c r="C24" s="107" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D24" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D24" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E24" s="33" t="s">
@@ -20870,9 +21320,9 @@
         <v>729</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D25" s="33" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D25" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E25" s="33" t="s">
@@ -20887,9 +21337,9 @@
         <v>733</v>
       </c>
       <c r="C26" s="107" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D26" s="33" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D26" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E26" s="33" t="s">
@@ -20904,9 +21354,9 @@
         <v>737</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D27" s="33" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D27" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E27" s="33" t="s">
@@ -20921,9 +21371,9 @@
         <v>739</v>
       </c>
       <c r="C28" s="107" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D28" s="33" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D28" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E28" s="33" t="s">
@@ -20938,9 +21388,9 @@
         <v>743</v>
       </c>
       <c r="C29" s="107" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D29" s="33" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D29" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E29" s="33" t="s">
@@ -20955,9 +21405,9 @@
         <v>745</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D30" s="33" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D30" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E30" s="33" t="s">
@@ -20972,9 +21422,9 @@
         <v>747</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D31" s="33" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D31" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E31" s="33" t="s">
@@ -20989,9 +21439,9 @@
         <v>749</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D32" s="33" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D32" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E32" s="33" t="s">
@@ -21006,9 +21456,9 @@
         <v>751</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D33" s="33" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D33" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E33" s="33" t="s">
@@ -21023,9 +21473,9 @@
         <v>754</v>
       </c>
       <c r="C34" s="107" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D34" s="33" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D34" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E34" s="33" t="s">
@@ -21040,9 +21490,9 @@
         <v>758</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D35" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D35" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E35" s="33" t="s">
@@ -21057,9 +21507,9 @@
         <v>760</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D36" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D36" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E36" s="33" t="s">
@@ -21074,9 +21524,9 @@
         <v>762</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D37" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D37" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E37" s="33" t="s">
@@ -21091,9 +21541,9 @@
         <v>764</v>
       </c>
       <c r="C38" s="107" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D38" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D38" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E38" s="33" t="s">
@@ -21108,9 +21558,9 @@
         <v>766</v>
       </c>
       <c r="C39" s="107" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D39" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D39" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E39" s="33" t="s">
@@ -21125,9 +21575,9 @@
         <v>768</v>
       </c>
       <c r="C40" s="107" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D40" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D40" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E40" s="33" t="s">
@@ -21142,9 +21592,9 @@
         <v>770</v>
       </c>
       <c r="C41" s="107" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D41" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D41" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E41" s="33" t="s">
@@ -21159,9 +21609,9 @@
         <v>781</v>
       </c>
       <c r="C42" s="107" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D42" s="33" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D42" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E42" s="33" t="s">
@@ -21176,9 +21626,9 @@
         <v>784</v>
       </c>
       <c r="C43" s="107" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D43" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D43" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E43" s="33" t="s">
@@ -21193,9 +21643,9 @@
         <v>786</v>
       </c>
       <c r="C44" s="107" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D44" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D44" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E44" s="33" t="s">
@@ -21210,9 +21660,9 @@
         <v>788</v>
       </c>
       <c r="C45" s="107" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D45" s="33" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D45" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E45" s="33" t="s">
@@ -21227,9 +21677,9 @@
         <v>790</v>
       </c>
       <c r="C46" s="107" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D46" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D46" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E46" s="33" t="s">
@@ -21244,9 +21694,9 @@
         <v>792</v>
       </c>
       <c r="C47" s="107" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D47" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D47" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E47" s="33" t="s">
@@ -21261,9 +21711,9 @@
         <v>795</v>
       </c>
       <c r="C48" s="107" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D48" s="33" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D48" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E48" s="33" t="s">
@@ -21278,9 +21728,9 @@
         <v>799</v>
       </c>
       <c r="C49" s="107" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D49" s="33" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D49" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E49" s="33" t="s">
@@ -21295,9 +21745,9 @@
         <v>801</v>
       </c>
       <c r="C50" s="107" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D50" s="33" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D50" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E50" s="33" t="s">
@@ -21312,9 +21762,9 @@
         <v>803</v>
       </c>
       <c r="C51" s="107" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D51" s="33" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D51" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E51" s="33" t="s">
@@ -21329,9 +21779,9 @@
         <v>805</v>
       </c>
       <c r="C52" s="107" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D52" s="33" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D52" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E52" s="33" t="s">
@@ -21346,9 +21796,9 @@
         <v>807</v>
       </c>
       <c r="C53" s="107" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D53" s="33" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D53" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E53" s="33" t="s">
@@ -21363,9 +21813,9 @@
         <v>809</v>
       </c>
       <c r="C54" s="107" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D54" s="33" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D54" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E54" s="33" t="s">
@@ -21380,9 +21830,9 @@
         <v>1066</v>
       </c>
       <c r="C55" s="107" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D55" s="33" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D55" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E55" s="33" t="s">
@@ -21397,9 +21847,9 @@
         <v>1070</v>
       </c>
       <c r="C56" s="107" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D56" s="33" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D56" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E56" s="33" t="s">
@@ -21414,9 +21864,9 @@
         <v>1074</v>
       </c>
       <c r="C57" s="107" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D57" s="33" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D57" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E57" s="33" t="s">
@@ -21431,9 +21881,9 @@
         <v>1078</v>
       </c>
       <c r="C58" s="107" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D58" s="33" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D58" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E58" s="33" t="s">
@@ -21448,9 +21898,9 @@
         <v>1088</v>
       </c>
       <c r="C59" s="107" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D59" s="33" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D59" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E59" s="33" t="s">
@@ -21465,9 +21915,9 @@
         <v>1090</v>
       </c>
       <c r="C60" s="107" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D60" s="33" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D60" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E60" s="33" t="s">
@@ -21554,10 +22004,10 @@
         <v>955</v>
       </c>
       <c r="C70" s="107" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>1641</v>
+        <v>1676</v>
+      </c>
+      <c r="D70" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E70" s="33" t="s">
         <v>1423</v>
@@ -21571,10 +22021,10 @@
         <v>1214</v>
       </c>
       <c r="C71" s="107" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D71" s="33" t="s">
-        <v>1641</v>
+        <v>1677</v>
+      </c>
+      <c r="D71" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E71" s="33" t="s">
         <v>1423</v>
@@ -21588,10 +22038,10 @@
         <v>1216</v>
       </c>
       <c r="C72" s="107" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>1641</v>
+        <v>1678</v>
+      </c>
+      <c r="D72" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E72" s="33" t="s">
         <v>1423</v>
@@ -21605,10 +22055,10 @@
         <v>1161</v>
       </c>
       <c r="C73" s="107" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D73" s="33" t="s">
-        <v>1641</v>
+        <v>1679</v>
+      </c>
+      <c r="D73" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E73" s="33" t="s">
         <v>1423</v>
@@ -21622,10 +22072,10 @@
         <v>1163</v>
       </c>
       <c r="C74" s="107" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>1641</v>
+        <v>1680</v>
+      </c>
+      <c r="D74" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E74" s="33" t="s">
         <v>1423</v>
@@ -21639,10 +22089,10 @@
         <v>1165</v>
       </c>
       <c r="C75" s="107" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D75" s="33" t="s">
-        <v>1641</v>
+        <v>1681</v>
+      </c>
+      <c r="D75" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E75" s="33" t="s">
         <v>1423</v>
@@ -21656,9 +22106,9 @@
         <v>880</v>
       </c>
       <c r="C76" s="107" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D76" s="33" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D76" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E76" s="33" t="s">
@@ -21673,9 +22123,9 @@
         <v>887</v>
       </c>
       <c r="C77" s="107" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D77" s="33" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D77" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E77" s="33" t="s">
@@ -21690,9 +22140,9 @@
         <v>891</v>
       </c>
       <c r="C78" s="107" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D78" s="33" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D78" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E78" s="33" t="s">
@@ -21707,9 +22157,9 @@
         <v>895</v>
       </c>
       <c r="C79" s="107" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D79" s="33" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D79" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E79" s="33" t="s">
@@ -21724,9 +22174,9 @@
         <v>883</v>
       </c>
       <c r="C80" s="107" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D80" s="33" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D80" s="107" t="s">
         <v>1639</v>
       </c>
       <c r="E80" s="33" t="s">
@@ -21741,10 +22191,10 @@
         <v>816</v>
       </c>
       <c r="C81" s="107" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>1641</v>
+        <v>1687</v>
+      </c>
+      <c r="D81" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E81" s="33" t="s">
         <v>1423</v>
@@ -21758,10 +22208,10 @@
         <v>812</v>
       </c>
       <c r="C82" s="107" t="s">
-        <v>1689</v>
-      </c>
-      <c r="D82" s="33" t="s">
-        <v>1641</v>
+        <v>1688</v>
+      </c>
+      <c r="D82" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E82" s="33" t="s">
         <v>1423</v>
@@ -21775,10 +22225,10 @@
         <v>814</v>
       </c>
       <c r="C83" s="107" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D83" s="33" t="s">
-        <v>1641</v>
+        <v>1689</v>
+      </c>
+      <c r="D83" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E83" s="33" t="s">
         <v>1423</v>
@@ -21792,10 +22242,10 @@
         <v>834</v>
       </c>
       <c r="C84" s="107" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D84" s="33" t="s">
-        <v>1641</v>
+        <v>1690</v>
+      </c>
+      <c r="D84" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E84" s="33" t="s">
         <v>1423</v>
@@ -21809,10 +22259,10 @@
         <v>1221</v>
       </c>
       <c r="C85" s="107" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D85" s="33" t="s">
-        <v>1641</v>
+        <v>1691</v>
+      </c>
+      <c r="D85" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E85" s="33" t="s">
         <v>1423</v>
@@ -21826,10 +22276,10 @@
         <v>1223</v>
       </c>
       <c r="C86" s="107" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D86" s="33" t="s">
-        <v>1641</v>
+        <v>1692</v>
+      </c>
+      <c r="D86" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E86" s="33" t="s">
         <v>1423</v>
@@ -21845,8 +22295,8 @@
       <c r="C87" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D87" s="33" t="s">
-        <v>1641</v>
+      <c r="D87" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E87" s="33" t="s">
         <v>1421</v>
@@ -21860,10 +22310,10 @@
         <v>856</v>
       </c>
       <c r="C88" s="107" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D88" s="107" t="s">
         <v>1694</v>
-      </c>
-      <c r="D88" s="33" t="s">
-        <v>1695</v>
       </c>
       <c r="E88" s="33" t="s">
         <v>1423</v>
@@ -21877,10 +22327,10 @@
         <v>858</v>
       </c>
       <c r="C89" s="107" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D89" s="33" t="s">
-        <v>1641</v>
+        <v>1695</v>
+      </c>
+      <c r="D89" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E89" s="33" t="s">
         <v>1423</v>
@@ -21896,8 +22346,8 @@
       <c r="C90" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D90" s="33" t="s">
-        <v>1641</v>
+      <c r="D90" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E90" s="33" t="s">
         <v>1421</v>
@@ -21913,8 +22363,8 @@
       <c r="C91" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D91" s="33" t="s">
-        <v>1641</v>
+      <c r="D91" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E91" s="33" t="s">
         <v>1421</v>
@@ -21930,8 +22380,8 @@
       <c r="C92" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D92" s="33" t="s">
-        <v>1641</v>
+      <c r="D92" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E92" s="33" t="s">
         <v>1421</v>
@@ -21947,8 +22397,8 @@
       <c r="C93" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D93" s="33" t="s">
-        <v>1641</v>
+      <c r="D93" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E93" s="33" t="s">
         <v>1421</v>
@@ -21964,8 +22414,8 @@
       <c r="C94" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D94" s="33" t="s">
-        <v>1641</v>
+      <c r="D94" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E94" s="33" t="s">
         <v>1421</v>
@@ -21981,8 +22431,8 @@
       <c r="C95" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D95" s="33" t="s">
-        <v>1641</v>
+      <c r="D95" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E95" s="33" t="s">
         <v>1421</v>
@@ -21996,10 +22446,10 @@
         <v>1219</v>
       </c>
       <c r="C96" s="107" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D96" s="33" t="s">
-        <v>1641</v>
+        <v>1696</v>
+      </c>
+      <c r="D96" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E96" s="33" t="s">
         <v>1423</v>
@@ -22015,8 +22465,8 @@
       <c r="C97" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D97" s="33" t="s">
-        <v>1641</v>
+      <c r="D97" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E97" s="33" t="s">
         <v>1421</v>
@@ -22032,8 +22482,8 @@
       <c r="C98" s="107" t="s">
         <v>1491</v>
       </c>
-      <c r="D98" s="33" t="s">
-        <v>1641</v>
+      <c r="D98" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E98" s="33" t="s">
         <v>1421</v>
@@ -22049,8 +22499,8 @@
       <c r="C99" s="107" t="s">
         <v>1491</v>
       </c>
-      <c r="D99" s="33" t="s">
-        <v>1641</v>
+      <c r="D99" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E99" s="33" t="s">
         <v>1421</v>
@@ -22066,8 +22516,8 @@
       <c r="C100" s="107" t="s">
         <v>1491</v>
       </c>
-      <c r="D100" s="33" t="s">
-        <v>1641</v>
+      <c r="D100" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E100" s="33" t="s">
         <v>1421</v>
@@ -22083,8 +22533,8 @@
       <c r="C101" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D101" s="33" t="s">
-        <v>1641</v>
+      <c r="D101" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E101" s="33" t="s">
         <v>1421</v>
@@ -22100,8 +22550,8 @@
       <c r="C102" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D102" s="33" t="s">
-        <v>1695</v>
+      <c r="D102" s="107" t="s">
+        <v>1694</v>
       </c>
       <c r="E102" s="33" t="s">
         <v>1421</v>
@@ -22117,8 +22567,8 @@
       <c r="C103" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D103" s="33" t="s">
-        <v>1695</v>
+      <c r="D103" s="107" t="s">
+        <v>1694</v>
       </c>
       <c r="E103" s="33" t="s">
         <v>1421</v>
@@ -22134,8 +22584,8 @@
       <c r="C104" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D104" s="33" t="s">
-        <v>1695</v>
+      <c r="D104" s="107" t="s">
+        <v>1694</v>
       </c>
       <c r="E104" s="33" t="s">
         <v>1421</v>
@@ -22151,8 +22601,8 @@
       <c r="C105" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D105" s="33" t="s">
-        <v>1695</v>
+      <c r="D105" s="107" t="s">
+        <v>1694</v>
       </c>
       <c r="E105" s="33" t="s">
         <v>1421</v>
@@ -22168,8 +22618,8 @@
       <c r="C106" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D106" s="33" t="s">
-        <v>1695</v>
+      <c r="D106" s="107" t="s">
+        <v>1694</v>
       </c>
       <c r="E106" s="33" t="s">
         <v>1421</v>
@@ -22185,8 +22635,8 @@
       <c r="C107" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D107" s="33" t="s">
-        <v>1641</v>
+      <c r="D107" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E107" s="33" t="s">
         <v>1421</v>
@@ -22202,8 +22652,8 @@
       <c r="C108" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D108" s="33" t="s">
-        <v>1641</v>
+      <c r="D108" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E108" s="33" t="s">
         <v>1421</v>
@@ -22219,8 +22669,8 @@
       <c r="C109" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D109" s="33" t="s">
-        <v>1641</v>
+      <c r="D109" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E109" s="33" t="s">
         <v>1421</v>
@@ -22236,8 +22686,8 @@
       <c r="C110" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D110" s="33" t="s">
-        <v>1641</v>
+      <c r="D110" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E110" s="33" t="s">
         <v>1421</v>
@@ -22253,8 +22703,8 @@
       <c r="C111" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D111" s="33" t="s">
-        <v>1641</v>
+      <c r="D111" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E111" s="33" t="s">
         <v>1421</v>
@@ -22270,8 +22720,8 @@
       <c r="C112" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D112" s="33" t="s">
-        <v>1641</v>
+      <c r="D112" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E112" s="33" t="s">
         <v>1421</v>
@@ -22287,8 +22737,8 @@
       <c r="C113" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D113" s="33" t="s">
-        <v>1641</v>
+      <c r="D113" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E113" s="33" t="s">
         <v>1421</v>
@@ -22304,8 +22754,8 @@
       <c r="C114" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D114" s="33" t="s">
-        <v>1641</v>
+      <c r="D114" s="107" t="s">
+        <v>1640</v>
       </c>
       <c r="E114" s="33" t="s">
         <v>1421</v>
@@ -22324,9 +22774,9 @@
         <v>820</v>
       </c>
       <c r="C116" s="107" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D116" s="33">
+        <v>1697</v>
+      </c>
+      <c r="D116" s="107">
         <v>8</v>
       </c>
       <c r="E116" s="33" t="s">
@@ -22341,9 +22791,9 @@
         <v>823</v>
       </c>
       <c r="C117" s="107" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D117" s="33">
+        <v>1698</v>
+      </c>
+      <c r="D117" s="107">
         <v>8</v>
       </c>
       <c r="E117" s="33" t="s">
@@ -22358,9 +22808,9 @@
         <v>830</v>
       </c>
       <c r="C118" s="107" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D118" s="33">
+        <v>1699</v>
+      </c>
+      <c r="D118" s="107">
         <v>8</v>
       </c>
       <c r="E118" s="33" t="s">
@@ -22375,9 +22825,9 @@
         <v>865</v>
       </c>
       <c r="C119" s="107" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D119" s="33">
+        <v>1700</v>
+      </c>
+      <c r="D119" s="107">
         <v>8</v>
       </c>
       <c r="E119" s="33" t="s">
@@ -22392,9 +22842,9 @@
         <v>870</v>
       </c>
       <c r="C120" s="107" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D120" s="33">
+        <v>1701</v>
+      </c>
+      <c r="D120" s="107">
         <v>8</v>
       </c>
       <c r="E120" s="33" t="s">
@@ -22409,9 +22859,9 @@
         <v>900</v>
       </c>
       <c r="C121" s="107" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D121" s="33">
+        <v>1702</v>
+      </c>
+      <c r="D121" s="107">
         <v>8</v>
       </c>
       <c r="E121" s="33" t="s">
@@ -22426,9 +22876,9 @@
         <v>903</v>
       </c>
       <c r="C122" s="107" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D122" s="33">
+        <v>1703</v>
+      </c>
+      <c r="D122" s="107">
         <v>8</v>
       </c>
       <c r="E122" s="33" t="s">
@@ -22443,9 +22893,9 @@
         <v>906</v>
       </c>
       <c r="C123" s="107" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D123" s="33">
+        <v>1704</v>
+      </c>
+      <c r="D123" s="107">
         <v>8</v>
       </c>
       <c r="E123" s="33" t="s">
@@ -22468,9 +22918,9 @@
         <v>912</v>
       </c>
       <c r="C125" s="107" t="s">
-        <v>1706</v>
-      </c>
-      <c r="D125" s="33">
+        <v>1705</v>
+      </c>
+      <c r="D125" s="107">
         <v>8</v>
       </c>
       <c r="E125" s="33" t="s">
@@ -22485,9 +22935,9 @@
         <v>915</v>
       </c>
       <c r="C126" s="107" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D126" s="33">
+        <v>1706</v>
+      </c>
+      <c r="D126" s="107">
         <v>8</v>
       </c>
       <c r="E126" s="33" t="s">
@@ -22502,9 +22952,9 @@
         <v>918</v>
       </c>
       <c r="C127" s="107" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D127" s="33">
+        <v>1707</v>
+      </c>
+      <c r="D127" s="107">
         <v>8</v>
       </c>
       <c r="E127" s="33" t="s">
@@ -22519,9 +22969,9 @@
         <v>921</v>
       </c>
       <c r="C128" s="107" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D128" s="33">
+        <v>1708</v>
+      </c>
+      <c r="D128" s="107">
         <v>8</v>
       </c>
       <c r="E128" s="33" t="s">
@@ -22536,9 +22986,9 @@
         <v>924</v>
       </c>
       <c r="C129" s="107" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D129" s="33">
+        <v>1709</v>
+      </c>
+      <c r="D129" s="107">
         <v>8</v>
       </c>
       <c r="E129" s="33" t="s">
@@ -22553,9 +23003,9 @@
         <v>927</v>
       </c>
       <c r="C130" s="107" t="s">
-        <v>1711</v>
-      </c>
-      <c r="D130" s="33">
+        <v>1710</v>
+      </c>
+      <c r="D130" s="107">
         <v>8</v>
       </c>
       <c r="E130" s="33" t="s">
@@ -22570,9 +23020,9 @@
         <v>940</v>
       </c>
       <c r="C131" s="107" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D131" s="33">
+        <v>1711</v>
+      </c>
+      <c r="D131" s="107">
         <v>8</v>
       </c>
       <c r="E131" s="33" t="s">
@@ -22587,9 +23037,9 @@
         <v>943</v>
       </c>
       <c r="C132" s="107" t="s">
-        <v>1713</v>
-      </c>
-      <c r="D132" s="33">
+        <v>1712</v>
+      </c>
+      <c r="D132" s="107">
         <v>8</v>
       </c>
       <c r="E132" s="33" t="s">
@@ -22604,10 +23054,10 @@
         <v>1232</v>
       </c>
       <c r="C133" s="107" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D133" s="33" t="s">
-        <v>1714</v>
+        <v>1715</v>
+      </c>
+      <c r="D133" s="107" t="s">
+        <v>1713</v>
       </c>
       <c r="E133" s="33" t="s">
         <v>1423</v>
@@ -22621,10 +23071,10 @@
         <v>1235</v>
       </c>
       <c r="C134" s="107" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D134" s="33" t="s">
-        <v>1717</v>
+        <v>1714</v>
+      </c>
+      <c r="D134" s="107" t="s">
+        <v>1716</v>
       </c>
       <c r="E134" s="33" t="s">
         <v>1423</v>
@@ -22638,9 +23088,9 @@
         <v>1238</v>
       </c>
       <c r="C135" s="107" t="s">
-        <v>1718</v>
-      </c>
-      <c r="D135" s="33">
+        <v>1717</v>
+      </c>
+      <c r="D135" s="107">
         <v>8</v>
       </c>
       <c r="E135" s="33" t="s">
@@ -22655,10 +23105,10 @@
         <v>1241</v>
       </c>
       <c r="C136" s="107" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D136" s="33" t="s">
-        <v>1714</v>
+        <v>1718</v>
+      </c>
+      <c r="D136" s="107" t="s">
+        <v>1713</v>
       </c>
       <c r="E136" s="33" t="s">
         <v>1423</v>
@@ -22672,10 +23122,10 @@
         <v>1244</v>
       </c>
       <c r="C137" s="107" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D137" s="33" t="s">
-        <v>1714</v>
+        <v>1719</v>
+      </c>
+      <c r="D137" s="107" t="s">
+        <v>1713</v>
       </c>
       <c r="E137" s="33" t="s">
         <v>1423</v>
@@ -22689,10 +23139,10 @@
         <v>1329</v>
       </c>
       <c r="C138" s="107" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D138" s="33" t="s">
-        <v>1714</v>
+        <v>1720</v>
+      </c>
+      <c r="D138" s="107" t="s">
+        <v>1713</v>
       </c>
       <c r="E138" s="33" t="s">
         <v>1423</v>
@@ -22711,9 +23161,9 @@
         <v>1140</v>
       </c>
       <c r="C140" s="107" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D140" s="33">
+        <v>1721</v>
+      </c>
+      <c r="D140" s="107">
         <v>98</v>
       </c>
       <c r="E140" s="33" t="s">
@@ -22733,7 +23183,7 @@
         <v>1252</v>
       </c>
       <c r="C142" s="107" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E142" s="33" t="s">
         <v>1423</v>
@@ -22747,7 +23197,7 @@
         <v>1255</v>
       </c>
       <c r="C143" s="107" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E143" s="33" t="s">
         <v>1423</v>
@@ -22766,7 +23216,7 @@
         <v>1259</v>
       </c>
       <c r="C145" s="107" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E145" s="33" t="s">
         <v>1423</v>
@@ -22780,9 +23230,9 @@
         <v>1262</v>
       </c>
       <c r="C146" s="107" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D146" s="33">
+        <v>1725</v>
+      </c>
+      <c r="D146" s="107">
         <v>99999</v>
       </c>
       <c r="E146" s="33" t="s">
@@ -22797,7 +23247,7 @@
         <v>1265</v>
       </c>
       <c r="C147" s="107" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E147" s="33" t="s">
         <v>1423</v>
@@ -22811,7 +23261,7 @@
         <v>1136</v>
       </c>
       <c r="C148" s="107" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E148" s="33" t="s">
         <v>1423</v>
@@ -22825,7 +23275,7 @@
         <v>1270</v>
       </c>
       <c r="C149" s="107" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E149" s="33" t="s">
         <v>1423</v>
@@ -22839,7 +23289,7 @@
         <v>1273</v>
       </c>
       <c r="C150" s="107" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E150" s="33" t="s">
         <v>1423</v>
@@ -22853,7 +23303,7 @@
         <v>1276</v>
       </c>
       <c r="C151" s="107" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E151" s="33" t="s">
         <v>1423</v>
@@ -22867,7 +23317,7 @@
         <v>1279</v>
       </c>
       <c r="C152" s="107" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E152" s="33" t="s">
         <v>1423</v>
@@ -22886,7 +23336,7 @@
         <v>1283</v>
       </c>
       <c r="C154" s="107" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E154" s="33" t="s">
         <v>1423</v>
@@ -22905,9 +23355,9 @@
         <v>1113</v>
       </c>
       <c r="C156" s="107" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D156" s="33">
+        <v>1733</v>
+      </c>
+      <c r="D156" s="107">
         <v>8</v>
       </c>
       <c r="E156" s="33" t="s">
@@ -22922,9 +23372,9 @@
         <v>1115</v>
       </c>
       <c r="C157" s="107" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D157" s="33">
+        <v>1734</v>
+      </c>
+      <c r="D157" s="107">
         <v>98</v>
       </c>
       <c r="E157" s="33" t="s">
@@ -22939,9 +23389,9 @@
         <v>1167</v>
       </c>
       <c r="C158" s="107" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D158" s="33">
+        <v>1735</v>
+      </c>
+      <c r="D158" s="107">
         <v>8</v>
       </c>
       <c r="E158" s="33" t="s">
@@ -22956,9 +23406,9 @@
         <v>1170</v>
       </c>
       <c r="C159" s="107" t="s">
-        <v>1737</v>
-      </c>
-      <c r="D159" s="33">
+        <v>1736</v>
+      </c>
+      <c r="D159" s="107">
         <v>8</v>
       </c>
       <c r="E159" s="33" t="s">
@@ -22973,9 +23423,9 @@
         <v>1173</v>
       </c>
       <c r="C160" s="107" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D160" s="33">
+        <v>1737</v>
+      </c>
+      <c r="D160" s="107">
         <v>8</v>
       </c>
       <c r="E160" s="33" t="s">
@@ -22990,9 +23440,9 @@
         <v>1176</v>
       </c>
       <c r="C161" s="107" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D161" s="33">
+        <v>1679</v>
+      </c>
+      <c r="D161" s="107">
         <v>8</v>
       </c>
       <c r="E161" s="33" t="s">
@@ -23007,9 +23457,9 @@
         <v>1179</v>
       </c>
       <c r="C162" s="107" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D162" s="33">
+        <v>1680</v>
+      </c>
+      <c r="D162" s="107">
         <v>8</v>
       </c>
       <c r="E162" s="33" t="s">
@@ -23024,9 +23474,9 @@
         <v>1182</v>
       </c>
       <c r="C163" s="107" t="s">
-        <v>1739</v>
-      </c>
-      <c r="D163" s="33">
+        <v>1738</v>
+      </c>
+      <c r="D163" s="107">
         <v>8</v>
       </c>
       <c r="E163" s="33" t="s">
@@ -23041,30 +23491,30 @@
         <v>1185</v>
       </c>
       <c r="C164" s="107" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D164" s="33" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D164" s="107" t="s">
         <v>1407</v>
       </c>
       <c r="E164" s="33" t="s">
         <v>1423</v>
       </c>
       <c r="F164" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C165" s="107" t="s">
-        <v>1749</v>
-      </c>
-      <c r="D165" s="33" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D165" s="107" t="s">
         <v>1407</v>
       </c>
       <c r="E165" s="33" t="s">
         <v>1423</v>
       </c>
       <c r="F165" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -23072,30 +23522,30 @@
         <v>1188</v>
       </c>
       <c r="C166" s="107" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D166" s="33" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D166" s="107" t="s">
         <v>1407</v>
       </c>
       <c r="E166" s="33" t="s">
         <v>1423</v>
       </c>
       <c r="F166" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C167" s="107" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D167" s="33" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D167" s="107" t="s">
         <v>1407</v>
       </c>
       <c r="E167" s="33" t="s">
         <v>1423</v>
       </c>
       <c r="F167" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -23103,30 +23553,30 @@
         <v>1191</v>
       </c>
       <c r="C168" s="107" t="s">
-        <v>1748</v>
-      </c>
-      <c r="D168" s="33" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D168" s="107" t="s">
         <v>1407</v>
       </c>
       <c r="E168" s="33" t="s">
         <v>1423</v>
       </c>
       <c r="F168" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C169" s="107" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D169" s="33" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D169" s="107" t="s">
         <v>1407</v>
       </c>
       <c r="E169" s="33" t="s">
         <v>1423</v>
       </c>
       <c r="F169" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -23136,7 +23586,7 @@
       <c r="C170" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D170" s="33">
+      <c r="D170" s="107">
         <v>8</v>
       </c>
       <c r="E170" s="33" t="s">
@@ -23151,9 +23601,9 @@
         <v>1196</v>
       </c>
       <c r="C171" s="107" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D171" s="33">
+        <v>1751</v>
+      </c>
+      <c r="D171" s="107">
         <v>98</v>
       </c>
       <c r="E171" s="33" t="s">
@@ -23274,7 +23724,7 @@
         <v>1287</v>
       </c>
       <c r="C186" s="107" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E186" s="33" t="s">
         <v>1423</v>
@@ -23288,7 +23738,7 @@
         <v>1290</v>
       </c>
       <c r="C187" s="107" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E187" s="33" t="s">
         <v>1423</v>
@@ -23307,7 +23757,7 @@
         <v>1294</v>
       </c>
       <c r="C189" s="107" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E189" s="33" t="s">
         <v>1423</v>
@@ -23326,7 +23776,7 @@
         <v>1298</v>
       </c>
       <c r="C191" s="107" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E191" s="33" t="s">
         <v>1421</v>
@@ -23359,7 +23809,7 @@
         <v>1310</v>
       </c>
       <c r="C194" s="107" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E194" s="33" t="s">
         <v>1423</v>
@@ -23378,7 +23828,7 @@
         <v>1304</v>
       </c>
       <c r="C196" s="107" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E196" s="33" t="s">
         <v>1423</v>
@@ -23392,7 +23842,7 @@
         <v>1306</v>
       </c>
       <c r="C197" s="107" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E197" s="33" t="s">
         <v>1423</v>
@@ -23411,9 +23861,9 @@
         <v>703</v>
       </c>
       <c r="C199" s="107" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D199" s="33">
+        <v>1759</v>
+      </c>
+      <c r="D199" s="107">
         <v>999998</v>
       </c>
       <c r="E199" s="33" t="s">
@@ -23428,9 +23878,9 @@
         <v>729</v>
       </c>
       <c r="C200" s="107" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D200" s="33">
+        <v>1759</v>
+      </c>
+      <c r="D200" s="107">
         <v>999998</v>
       </c>
       <c r="E200" s="33" t="s">
@@ -23447,7 +23897,7 @@
       <c r="C201" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D201" s="33" t="s">
+      <c r="D201" s="107" t="s">
         <v>1407</v>
       </c>
       <c r="E201" s="33" t="s">
@@ -23462,9 +23912,9 @@
         <v>739</v>
       </c>
       <c r="C202" s="107" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D202" s="33">
+        <v>1760</v>
+      </c>
+      <c r="D202" s="107">
         <v>999998</v>
       </c>
       <c r="E202" s="33" t="s">
@@ -23481,7 +23931,7 @@
       <c r="C203" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D203" s="33" t="s">
+      <c r="D203" s="107" t="s">
         <v>1407</v>
       </c>
       <c r="E203" s="33" t="s">
@@ -23498,7 +23948,7 @@
       <c r="C204" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D204" s="33" t="s">
+      <c r="D204" s="107" t="s">
         <v>1407</v>
       </c>
       <c r="E204" s="33" t="s">
@@ -23515,7 +23965,7 @@
       <c r="C205" s="107" t="s">
         <v>1486</v>
       </c>
-      <c r="D205" s="33" t="s">
+      <c r="D205" s="107" t="s">
         <v>1407</v>
       </c>
       <c r="E205" s="33" t="s">
@@ -23530,10 +23980,10 @@
         <v>883</v>
       </c>
       <c r="C206" s="107" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D206" s="108">
-        <v>996998</v>
+        <v>1761</v>
+      </c>
+      <c r="D206" s="107" t="s">
+        <v>1766</v>
       </c>
       <c r="E206" s="33" t="s">
         <v>1423</v>
@@ -23547,10 +23997,10 @@
         <v>887</v>
       </c>
       <c r="C207" s="107" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D207" s="108">
-        <v>99969998</v>
+        <v>1762</v>
+      </c>
+      <c r="D207" s="107" t="s">
+        <v>1767</v>
       </c>
       <c r="E207" s="33" t="s">
         <v>1423</v>
@@ -23564,10 +24014,10 @@
         <v>891</v>
       </c>
       <c r="C208" s="107" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D208" s="108">
-        <v>996998</v>
+        <v>1763</v>
+      </c>
+      <c r="D208" s="107" t="s">
+        <v>1766</v>
       </c>
       <c r="E208" s="33" t="s">
         <v>1423</v>
@@ -23581,10 +24031,10 @@
         <v>895</v>
       </c>
       <c r="C209" s="107" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D209" s="108">
-        <v>996998</v>
+        <v>1764</v>
+      </c>
+      <c r="D209" s="107" t="s">
+        <v>1766</v>
       </c>
       <c r="E209" s="33" t="s">
         <v>1423</v>
@@ -23600,7 +24050,7 @@
       <c r="C210" s="107" t="s">
         <v>1491</v>
       </c>
-      <c r="D210" s="33">
+      <c r="D210" s="107">
         <v>8</v>
       </c>
       <c r="E210" s="33" t="s">
@@ -23617,7 +24067,7 @@
       <c r="C211" s="107" t="s">
         <v>1529</v>
       </c>
-      <c r="D211" s="33">
+      <c r="D211" s="107">
         <v>8</v>
       </c>
       <c r="E211" s="33" t="s">
@@ -23634,8 +24084,8 @@
       <c r="C212" s="107" t="s">
         <v>1491</v>
       </c>
-      <c r="D212" s="33">
-        <v>8</v>
+      <c r="D212" s="107" t="s">
+        <v>1768</v>
       </c>
       <c r="E212" s="33" t="s">
         <v>1421</v>
@@ -23648,6 +24098,15 @@
       <c r="B213" s="33" t="s">
         <v>999</v>
       </c>
+      <c r="C213" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D213" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E213" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F213" t="s">
         <v>1001</v>
       </c>
@@ -23656,6 +24115,15 @@
       <c r="B214" s="33" t="s">
         <v>1003</v>
       </c>
+      <c r="C214" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D214" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E214" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F214" t="s">
         <v>1005</v>
       </c>
@@ -23664,6 +24132,15 @@
       <c r="B215" s="33" t="s">
         <v>1010</v>
       </c>
+      <c r="C215" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D215" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E215" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F215" t="s">
         <v>1012</v>
       </c>
@@ -23672,6 +24149,15 @@
       <c r="B216" s="33" t="s">
         <v>1014</v>
       </c>
+      <c r="C216" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D216" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E216" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F216" t="s">
         <v>1016</v>
       </c>
@@ -23680,6 +24166,15 @@
       <c r="B217" s="33" t="s">
         <v>1018</v>
       </c>
+      <c r="C217" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D217" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E217" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F217" t="s">
         <v>1020</v>
       </c>
@@ -23688,6 +24183,15 @@
       <c r="B218" s="33" t="s">
         <v>1024</v>
       </c>
+      <c r="C218" s="107" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D218" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E218" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F218" t="s">
         <v>1026</v>
       </c>
@@ -23696,6 +24200,15 @@
       <c r="B219" s="33" t="s">
         <v>1028</v>
       </c>
+      <c r="C219" s="107" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D219" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E219" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F219" t="s">
         <v>1029</v>
       </c>
@@ -23704,6 +24217,15 @@
       <c r="B220" s="33" t="s">
         <v>1031</v>
       </c>
+      <c r="C220" s="107" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D220" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E220" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F220" t="s">
         <v>1032</v>
       </c>
@@ -23712,6 +24234,15 @@
       <c r="B221" s="33" t="s">
         <v>1034</v>
       </c>
+      <c r="C221" s="107" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D221" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E221" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F221" t="s">
         <v>1035</v>
       </c>
@@ -23720,6 +24251,15 @@
       <c r="B222" s="33" t="s">
         <v>1037</v>
       </c>
+      <c r="C222" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D222" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E222" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F222" t="s">
         <v>1038</v>
       </c>
@@ -23728,6 +24268,15 @@
       <c r="B223" s="33" t="s">
         <v>1040</v>
       </c>
+      <c r="C223" s="107" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D223" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E223" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F223" t="s">
         <v>1041</v>
       </c>
@@ -23736,6 +24285,15 @@
       <c r="B224" s="33" t="s">
         <v>1043</v>
       </c>
+      <c r="C224" s="107" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D224" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E224" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F224" t="s">
         <v>1044</v>
       </c>
@@ -23744,6 +24302,15 @@
       <c r="B225" s="33" t="s">
         <v>1046</v>
       </c>
+      <c r="C225" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D225" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E225" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F225" t="s">
         <v>1047</v>
       </c>
@@ -23752,6 +24319,15 @@
       <c r="B226" s="33" t="s">
         <v>1049</v>
       </c>
+      <c r="C226" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D226" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E226" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F226" t="s">
         <v>1050</v>
       </c>
@@ -23760,6 +24336,15 @@
       <c r="B227" s="33" t="s">
         <v>1053</v>
       </c>
+      <c r="C227" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D227" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E227" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F227" t="s">
         <v>1055</v>
       </c>
@@ -23768,6 +24353,15 @@
       <c r="B228" s="33" t="s">
         <v>1061</v>
       </c>
+      <c r="C228" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D228" s="107" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E228" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F228" t="s">
         <v>1063</v>
       </c>
@@ -23776,6 +24370,15 @@
       <c r="B229" s="33" t="s">
         <v>1066</v>
       </c>
+      <c r="C229" s="107" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D229" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E229" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F229" t="s">
         <v>1068</v>
       </c>
@@ -23784,6 +24387,15 @@
       <c r="B230" s="33" t="s">
         <v>1070</v>
       </c>
+      <c r="C230" s="107" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D230" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E230" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F230" t="s">
         <v>1072</v>
       </c>
@@ -23792,6 +24404,15 @@
       <c r="B231" s="33" t="s">
         <v>1074</v>
       </c>
+      <c r="C231" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D231" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E231" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F231" t="s">
         <v>1076</v>
       </c>
@@ -23800,6 +24421,15 @@
       <c r="B232" s="33" t="s">
         <v>1078</v>
       </c>
+      <c r="C232" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D232" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E232" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F232" t="s">
         <v>1080</v>
       </c>
@@ -23808,6 +24438,15 @@
       <c r="B233" s="33" t="s">
         <v>1093</v>
       </c>
+      <c r="C233" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D233" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E233" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F233" t="s">
         <v>1095</v>
       </c>
@@ -23816,6 +24455,15 @@
       <c r="B234" s="33" t="s">
         <v>909</v>
       </c>
+      <c r="C234" s="107" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D234" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E234" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F234" t="s">
         <v>911</v>
       </c>
@@ -23824,6 +24472,15 @@
       <c r="B235" s="33" t="s">
         <v>772</v>
       </c>
+      <c r="C235" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D235" s="107" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E235" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F235" t="s">
         <v>773</v>
       </c>
@@ -23832,6 +24489,15 @@
       <c r="B236" s="33" t="s">
         <v>775</v>
       </c>
+      <c r="C236" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D236" s="107" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E236" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F236" t="s">
         <v>776</v>
       </c>
@@ -23840,1404 +24506,2911 @@
       <c r="B237" s="33" t="s">
         <v>838</v>
       </c>
+      <c r="C237" s="107" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D237" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E237" s="33" t="s">
+        <v>1423</v>
+      </c>
       <c r="F237" t="s">
-        <v>839</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="33" t="s">
+        <v>838</v>
+      </c>
+      <c r="C238" s="107" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D238" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E238" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B239" s="33" t="s">
+        <v>838</v>
+      </c>
+      <c r="C239" s="107" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D239" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E239" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B240" s="33" t="s">
         <v>1007</v>
       </c>
-      <c r="F238" t="s">
+      <c r="C240" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D240" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E240" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F240" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="239" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B239" s="33" t="s">
+    <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B241" s="33" t="s">
         <v>1082</v>
       </c>
-      <c r="F239" t="s">
+      <c r="C241" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D241" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E241" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F241" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="240" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B240" s="33" t="s">
+    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B242" s="33" t="s">
         <v>1085</v>
       </c>
-      <c r="F240" t="s">
+      <c r="C242" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D242" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E242" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F242" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>1359</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B242" s="33" t="s">
-        <v>834</v>
-      </c>
-      <c r="F242" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B243" s="33" t="s">
-        <v>841</v>
-      </c>
-      <c r="F243" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B244" s="33" t="s">
-        <v>1098</v>
+        <v>834</v>
+      </c>
+      <c r="C244" s="107" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D244" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E244" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F244" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B245" s="33" t="s">
-        <v>1101</v>
+        <v>841</v>
+      </c>
+      <c r="C245" s="107" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D245" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E245" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F245" t="s">
-        <v>1102</v>
+        <v>842</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B246" s="33" t="s">
-        <v>1104</v>
+        <v>1098</v>
+      </c>
+      <c r="C246" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D246" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E246" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F246" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B247" s="33" t="s">
-        <v>1107</v>
+        <v>1101</v>
+      </c>
+      <c r="C247" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D247" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E247" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F247" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B248" s="33" t="s">
-        <v>1110</v>
+        <v>1104</v>
+      </c>
+      <c r="C248" s="107" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D248" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E248" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F248" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B249" s="33" t="s">
-        <v>1118</v>
+        <v>1107</v>
+      </c>
+      <c r="C249" s="107" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D249" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E249" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F249" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B250" s="33" t="s">
-        <v>1121</v>
+        <v>1110</v>
+      </c>
+      <c r="C250" s="107" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D250" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E250" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F250" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B251" s="33" t="s">
-        <v>1124</v>
+        <v>1118</v>
+      </c>
+      <c r="C251" s="107" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D251" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E251" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F251" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B252" s="33" t="s">
-        <v>1127</v>
+        <v>1121</v>
+      </c>
+      <c r="C252" s="107" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D252" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E252" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F252" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B253" s="33" t="s">
-        <v>1130</v>
+        <v>1124</v>
+      </c>
+      <c r="C253" s="107" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D253" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E253" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F253" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B254" s="33" t="s">
-        <v>1133</v>
+        <v>1127</v>
+      </c>
+      <c r="C254" s="107" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D254" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E254" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F254" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B255" s="33" t="s">
-        <v>1136</v>
+        <v>1130</v>
+      </c>
+      <c r="C255" s="107" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D255" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E255" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F255" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B256" s="33" t="s">
-        <v>1145</v>
+        <v>1133</v>
+      </c>
+      <c r="C256" s="107" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D256" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E256" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F256" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B257" s="33" t="s">
-        <v>1148</v>
+        <v>1136</v>
+      </c>
+      <c r="C257" s="107" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D257" s="107" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E257" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F257" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B258" s="33" t="s">
-        <v>1151</v>
+        <v>1145</v>
+      </c>
+      <c r="C258" s="107" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D258" s="107" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E258" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F258" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B259" s="33" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C259" s="107" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D259" s="107" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E259" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B260" s="33" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C260" s="107" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D260" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E260" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B261" s="33" t="s">
         <v>1154</v>
       </c>
-      <c r="F259" t="s">
+      <c r="C261" s="107" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D261" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E261" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F261" t="s">
         <v>1155</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B260" s="33" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F260" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B262" s="33" t="s">
-        <v>1140</v>
+        <v>1157</v>
+      </c>
+      <c r="C262" s="107" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D262" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E262" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F262" t="s">
-        <v>1142</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B264" s="33" t="s">
-        <v>830</v>
+        <v>1140</v>
+      </c>
+      <c r="C264" s="107" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D264" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E264" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F264" t="s">
-        <v>832</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B266" s="33" t="s">
+        <v>830</v>
+      </c>
+      <c r="C266" s="107" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D266" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E266" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F266" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B268" s="33" t="s">
         <v>1252</v>
       </c>
-      <c r="F266" t="s">
+      <c r="C268" s="107" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D268" s="107" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E268" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F268" t="s">
         <v>1254</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B267" s="33" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F267" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B269" s="33" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C269" s="107" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D269" s="107" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E269" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B271" s="33" t="s">
         <v>861</v>
       </c>
-      <c r="F269" t="s">
+      <c r="C271" s="107" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D271" s="107" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E271" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F271" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B270" s="33" t="s">
+    <row r="272" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B272" s="33" t="s">
         <v>863</v>
       </c>
-      <c r="F270" t="s">
+      <c r="C272" s="107" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D272" s="107" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E272" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F272" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>1364</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B272" s="33" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F272" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B273" s="33" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F273" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B274" s="33" t="s">
-        <v>1265</v>
+        <v>1259</v>
+      </c>
+      <c r="C274" s="107" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D274" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E274" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F274" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B275" s="33" t="s">
-        <v>1136</v>
+        <v>1262</v>
+      </c>
+      <c r="C275" s="107" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D275" s="107" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E275" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F275" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B276" s="33" t="s">
-        <v>1270</v>
+        <v>1265</v>
+      </c>
+      <c r="C276" s="107" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D276" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E276" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F276" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B277" s="33" t="s">
-        <v>1273</v>
+        <v>1136</v>
+      </c>
+      <c r="C277" s="107" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D277" s="107" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E277" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F277" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B278" s="33" t="s">
-        <v>1276</v>
+        <v>1270</v>
+      </c>
+      <c r="C278" s="107" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D278" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E278" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F278" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B279" s="33" t="s">
-        <v>1279</v>
+        <v>1273</v>
+      </c>
+      <c r="C279" s="107" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D279" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E279" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F279" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>1365</v>
+      <c r="B280" s="33" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C280" s="107" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D280" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E280" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F280" t="s">
+        <v>1278</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B281" s="33" t="s">
-        <v>880</v>
+        <v>1279</v>
+      </c>
+      <c r="C281" s="107" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D281" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E281" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F281" t="s">
-        <v>882</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B283" s="33" t="s">
-        <v>1312</v>
+        <v>880</v>
+      </c>
+      <c r="C283" s="107" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D283" s="107" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E283" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F283" t="s">
-        <v>1313</v>
+        <v>882</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B284" s="33" t="s">
-        <v>1314</v>
-      </c>
-      <c r="F284" t="s">
-        <v>1315</v>
+      <c r="A284" t="s">
+        <v>1366</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B285" s="33" t="s">
-        <v>1316</v>
+        <v>1312</v>
+      </c>
+      <c r="C285" s="107" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E285" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F285" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B286" s="33" t="s">
-        <v>1318</v>
+        <v>1314</v>
+      </c>
+      <c r="C286" s="107" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D286" s="107" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E286" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F286" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B287" s="33" t="s">
-        <v>1320</v>
+        <v>1316</v>
+      </c>
+      <c r="C287" s="107" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D287" s="107" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E287" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F287" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B288" s="33" t="s">
-        <v>1322</v>
+        <v>1318</v>
+      </c>
+      <c r="C288" s="107" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D288" s="107" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E288" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F288" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>1367</v>
+      <c r="B289" s="33" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C289" s="107" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D289" s="107" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E289" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B290" s="33" t="s">
-        <v>1283</v>
+        <v>1322</v>
+      </c>
+      <c r="C290" s="107" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D290" s="107" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E290" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F290" t="s">
-        <v>1285</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B292" s="33" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C292" s="107" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D292" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E292" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>1368</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B292" s="33" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F292" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B293" s="33" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F293" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="33" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C294" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D294" s="107" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E294" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B295" s="33" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C295" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D295" s="107" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E295" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B296" s="33" t="s">
         <v>1173</v>
       </c>
-      <c r="F294" t="s">
+      <c r="C296" s="107" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D296" s="107" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E296" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F296" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B295" s="33" t="s">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B297" s="33" t="s">
         <v>1176</v>
       </c>
-      <c r="F295" t="s">
+      <c r="C297" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D297" s="107" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E297" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F297" t="s">
         <v>1178</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B296" s="33" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F296" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B297" s="33" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F297" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B298" s="33" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C298" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D298" s="107" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E298" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B299" s="33" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C299" s="107" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D299" s="107" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E299" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F299" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B300" s="33" t="s">
         <v>1185</v>
       </c>
-      <c r="F298" t="s">
+      <c r="C300" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D300" s="107" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E300" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F300" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B299" s="33" t="s">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B301" s="33" t="s">
         <v>1188</v>
       </c>
-      <c r="F299" t="s">
+      <c r="C301" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D301" s="107" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E301" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F301" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B300" s="33" t="s">
+    <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B302" s="33" t="s">
         <v>1191</v>
       </c>
-      <c r="F300" t="s">
+      <c r="C302" s="107" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D302" s="107" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E302" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F302" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B301" s="33" t="s">
+    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B303" s="33" t="s">
         <v>1196</v>
       </c>
-      <c r="F301" t="s">
+      <c r="C303" s="107" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D303" s="107" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E303" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F303" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B302" s="33" t="s">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B304" s="33" t="s">
         <v>1199</v>
       </c>
-      <c r="F302" t="s">
+      <c r="C304" s="107" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D304" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E304" s="33" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F304" t="s">
         <v>1201</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B303" s="33" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F303" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B304" s="33" t="s">
-        <v>778</v>
-      </c>
-      <c r="F304" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B305" s="33" t="s">
-        <v>1205</v>
+        <v>1202</v>
+      </c>
+      <c r="C305" s="107" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D305" s="107" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E305" s="33" t="s">
+        <v>1421</v>
       </c>
       <c r="F305" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B306" s="33" t="s">
-        <v>1207</v>
+        <v>778</v>
+      </c>
+      <c r="C306" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D306" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E306" s="33" t="s">
+        <v>1421</v>
       </c>
       <c r="F306" t="s">
-        <v>1208</v>
+        <v>779</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B307" s="33" t="s">
-        <v>1209</v>
+        <v>1205</v>
+      </c>
+      <c r="C307" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D307" s="107" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E307" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F307" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B308" s="33" t="s">
-        <v>1211</v>
+        <v>1207</v>
+      </c>
+      <c r="C308" s="107" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D308" s="107" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E308" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F308" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>1369</v>
+      <c r="B309" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C309" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D309" s="107" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E309" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F309" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B310" s="33" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C310" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D310" s="107" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E310" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B312" s="33" t="s">
         <v>1287</v>
       </c>
-      <c r="F310" t="s">
+      <c r="C312" s="107" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D312" s="107" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E312" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F312" t="s">
         <v>1289</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B311" s="33" t="s">
-        <v>1290</v>
-      </c>
-      <c r="F311" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B313" s="33" t="s">
-        <v>1294</v>
+        <v>1290</v>
+      </c>
+      <c r="C313" s="107" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D313" s="107" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E313" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F313" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B315" s="33" t="s">
-        <v>1298</v>
+        <v>1294</v>
+      </c>
+      <c r="C315" s="107" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D315" s="107" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E315" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F315" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B317" s="33" t="s">
-        <v>1306</v>
+        <v>1298</v>
+      </c>
+      <c r="C317" s="107" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D317" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E317" s="33" t="s">
+        <v>1421</v>
       </c>
       <c r="F317" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B319" s="33" t="s">
-        <v>703</v>
+        <v>1306</v>
+      </c>
+      <c r="C319" s="107" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D319" s="107" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E319" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F319" t="s">
-        <v>706</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B320" s="33" t="s">
-        <v>729</v>
-      </c>
-      <c r="F320" t="s">
-        <v>732</v>
+      <c r="A320" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B321" s="33" t="s">
-        <v>733</v>
+        <v>703</v>
+      </c>
+      <c r="C321" s="107" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D321" s="107" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E321" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F321" t="s">
-        <v>736</v>
+        <v>706</v>
       </c>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B322" s="33" t="s">
-        <v>739</v>
+        <v>729</v>
+      </c>
+      <c r="C322" s="107" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D322" s="107" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E322" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F322" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B323" s="33" t="s">
-        <v>754</v>
+        <v>733</v>
+      </c>
+      <c r="C323" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D323" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E323" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F323" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B324" s="33" t="s">
-        <v>795</v>
+        <v>739</v>
+      </c>
+      <c r="C324" s="107" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D324" s="107" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E324" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F324" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="325" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B325" s="33" t="s">
-        <v>883</v>
+        <v>754</v>
+      </c>
+      <c r="C325" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D325" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E325" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F325" t="s">
-        <v>886</v>
+        <v>757</v>
       </c>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B326" s="33" t="s">
-        <v>887</v>
+        <v>795</v>
+      </c>
+      <c r="C326" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D326" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E326" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F326" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="327" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="33" t="s">
-        <v>891</v>
+        <v>883</v>
+      </c>
+      <c r="C327" s="107" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D327" s="107" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E327" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F327" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B328" s="33" t="s">
-        <v>895</v>
+        <v>887</v>
+      </c>
+      <c r="C328" s="107" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D328" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E328" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F328" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B329" s="33" t="s">
-        <v>999</v>
+        <v>891</v>
+      </c>
+      <c r="C329" s="107" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D329" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E329" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F329" t="s">
-        <v>1002</v>
+        <v>894</v>
       </c>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B330" s="33" t="s">
-        <v>1003</v>
+        <v>895</v>
+      </c>
+      <c r="C330" s="107" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D330" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E330" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F330" t="s">
-        <v>1006</v>
+        <v>898</v>
       </c>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B331" s="33" t="s">
-        <v>1010</v>
+        <v>999</v>
+      </c>
+      <c r="C331" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D331" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E331" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F331" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B332" s="33" t="s">
-        <v>1014</v>
+        <v>1003</v>
+      </c>
+      <c r="C332" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D332" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E332" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F332" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B333" s="33" t="s">
-        <v>1018</v>
+        <v>1010</v>
+      </c>
+      <c r="C333" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D333" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E333" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F333" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B334" s="33" t="s">
-        <v>1024</v>
+        <v>1014</v>
+      </c>
+      <c r="C334" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D334" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E334" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F334" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B335" s="33" t="s">
-        <v>1028</v>
+        <v>1018</v>
+      </c>
+      <c r="C335" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D335" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E335" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F335" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B336" s="33" t="s">
-        <v>1031</v>
+        <v>1024</v>
+      </c>
+      <c r="C336" s="107" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D336" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E336" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F336" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B337" s="33" t="s">
-        <v>1034</v>
+        <v>1028</v>
+      </c>
+      <c r="C337" s="107" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D337" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E337" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F337" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B338" s="33" t="s">
-        <v>1037</v>
+        <v>1031</v>
+      </c>
+      <c r="C338" s="107" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D338" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E338" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F338" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B339" s="33" t="s">
-        <v>1040</v>
+        <v>1034</v>
+      </c>
+      <c r="C339" s="107" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D339" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E339" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F339" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B340" s="33" t="s">
-        <v>1043</v>
+        <v>1037</v>
+      </c>
+      <c r="C340" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D340" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E340" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F340" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B341" s="33" t="s">
-        <v>1046</v>
+        <v>1040</v>
+      </c>
+      <c r="C341" s="107" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D341" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E341" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F341" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B342" s="33" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C342" s="107" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D342" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E342" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B343" s="33" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C343" s="107" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D343" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E343" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B344" s="33" t="s">
         <v>1049</v>
       </c>
-      <c r="F342" t="s">
+      <c r="C344" s="107" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D344" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E344" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F344" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="343" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B343" s="33" t="s">
+    <row r="345" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B345" s="33" t="s">
         <v>1061</v>
       </c>
-      <c r="F343" t="s">
+      <c r="C345" s="107" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D345" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E345" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F345" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="344" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B344" s="33" t="s">
+    <row r="346" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B346" s="33" t="s">
         <v>1066</v>
       </c>
-      <c r="F344" t="s">
+      <c r="C346" s="107" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D346" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E346" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F346" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B345" s="33" t="s">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B347" s="33" t="s">
         <v>1070</v>
       </c>
-      <c r="F345" t="s">
+      <c r="C347" s="107" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D347" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E347" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F347" t="s">
         <v>1073</v>
-      </c>
-    </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B346" s="33" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F346" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="347" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B347" s="33" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F347" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B348" s="33" t="s">
-        <v>1093</v>
+        <v>1074</v>
+      </c>
+      <c r="C348" s="107" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D348" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E348" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F348" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B349" s="33" t="s">
-        <v>772</v>
+        <v>1078</v>
+      </c>
+      <c r="C349" s="107" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D349" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E349" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F349" t="s">
-        <v>774</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B350" s="33" t="s">
-        <v>775</v>
+        <v>1093</v>
+      </c>
+      <c r="C350" s="107" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D350" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E350" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F350" t="s">
-        <v>777</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B351" s="33" t="s">
-        <v>838</v>
+        <v>772</v>
+      </c>
+      <c r="C351" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D351" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E351" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F351" t="s">
-        <v>840</v>
+        <v>774</v>
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B352" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="C352" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D352" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E352" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F352" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B353" s="33" t="s">
+        <v>838</v>
+      </c>
+      <c r="C353" s="107" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D353" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E353" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F353" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B354" s="33" t="s">
         <v>1007</v>
       </c>
-      <c r="F352" t="s">
+      <c r="C354" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D354" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E354" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F354" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="353" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B353" s="33" t="s">
+    <row r="355" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B355" s="33" t="s">
         <v>1082</v>
       </c>
-      <c r="F353" t="s">
+      <c r="C355" s="107" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D355" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E355" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F355" t="s">
         <v>1084</v>
-      </c>
-    </row>
-    <row r="354" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B354" s="33" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F354" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B355" s="33" t="s">
-        <v>834</v>
-      </c>
-      <c r="F355" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="356" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B356" s="33" t="s">
-        <v>841</v>
+        <v>1085</v>
+      </c>
+      <c r="C356" s="107" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D356" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E356" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F356" t="s">
-        <v>843</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B357" s="33" t="s">
-        <v>1098</v>
+        <v>834</v>
+      </c>
+      <c r="C357" s="107" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D357" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E357" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F357" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B358" s="33" t="s">
-        <v>1101</v>
+        <v>841</v>
+      </c>
+      <c r="C358" s="107" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D358" s="107" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E358" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F358" t="s">
-        <v>1103</v>
+        <v>843</v>
       </c>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B359" s="33" t="s">
-        <v>1104</v>
+        <v>1098</v>
+      </c>
+      <c r="C359" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D359" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E359" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F359" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B360" s="33" t="s">
-        <v>1107</v>
+        <v>1101</v>
+      </c>
+      <c r="C360" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D360" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E360" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F360" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B361" s="33" t="s">
-        <v>1110</v>
+        <v>1104</v>
+      </c>
+      <c r="C361" s="107" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D361" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E361" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F361" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="362" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B362" s="33" t="s">
-        <v>1118</v>
+        <v>1107</v>
+      </c>
+      <c r="C362" s="107" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D362" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E362" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F362" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B363" s="33" t="s">
-        <v>1121</v>
+        <v>1110</v>
+      </c>
+      <c r="C363" s="107" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D363" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E363" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F363" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B364" s="33" t="s">
-        <v>1124</v>
+        <v>1118</v>
+      </c>
+      <c r="C364" s="107" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D364" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E364" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F364" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B365" s="33" t="s">
-        <v>1127</v>
+        <v>1121</v>
+      </c>
+      <c r="C365" s="107" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D365" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E365" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F365" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B366" s="33" t="s">
-        <v>1130</v>
+        <v>1124</v>
+      </c>
+      <c r="C366" s="107" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D366" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E366" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F366" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B367" s="33" t="s">
-        <v>1133</v>
+        <v>1127</v>
+      </c>
+      <c r="C367" s="107" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D367" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E367" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F367" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B368" s="33" t="s">
-        <v>1136</v>
+        <v>1130</v>
+      </c>
+      <c r="C368" s="107" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D368" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E368" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F368" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B369" s="33" t="s">
-        <v>1145</v>
+        <v>1133</v>
+      </c>
+      <c r="C369" s="107" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D369" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E369" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F369" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B370" s="33" t="s">
-        <v>1148</v>
+        <v>1136</v>
+      </c>
+      <c r="C370" s="107" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D370" s="107" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E370" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F370" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B371" s="33" t="s">
-        <v>1151</v>
+        <v>1145</v>
+      </c>
+      <c r="C371" s="107" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D371" s="107" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E371" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F371" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B372" s="33" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C372" s="107" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D372" s="107" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E372" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F372" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B373" s="33" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C373" s="107" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D373" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E373" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B374" s="33" t="s">
         <v>1154</v>
       </c>
-      <c r="F372" t="s">
+      <c r="C374" s="107" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D374" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E374" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F374" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B373" s="33" t="s">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B375" s="33" t="s">
         <v>1157</v>
       </c>
-      <c r="F373" t="s">
+      <c r="C375" s="107" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D375" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E375" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F375" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B374" s="33" t="s">
+    <row r="376" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B376" s="33" t="s">
         <v>792</v>
       </c>
-      <c r="F374" t="s">
+      <c r="C376" s="107" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D376" s="107" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E376" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F376" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
         <v>1374</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B376" s="33" t="s">
-        <v>909</v>
-      </c>
-      <c r="F376" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B377" s="33" t="s">
-        <v>830</v>
-      </c>
-      <c r="F377" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B378" s="33" t="s">
-        <v>820</v>
+        <v>909</v>
       </c>
       <c r="F378" t="s">
-        <v>822</v>
+        <v>910</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B379" s="33" t="s">
-        <v>823</v>
+        <v>830</v>
+      </c>
+      <c r="C379" s="107" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D379" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E379" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F379" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B380" s="33" t="s">
-        <v>865</v>
+        <v>820</v>
+      </c>
+      <c r="C380" s="107" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D380" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E380" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F380" t="s">
-        <v>867</v>
+        <v>822</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B381" s="33" t="s">
-        <v>870</v>
+        <v>823</v>
+      </c>
+      <c r="C381" s="107" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D381" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E381" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F381" t="s">
-        <v>872</v>
+        <v>825</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B382" s="33" t="s">
-        <v>900</v>
+        <v>865</v>
+      </c>
+      <c r="C382" s="107" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D382" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E382" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F382" t="s">
-        <v>902</v>
+        <v>867</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B383" s="33" t="s">
-        <v>903</v>
+        <v>870</v>
+      </c>
+      <c r="C383" s="107" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D383" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E383" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F383" t="s">
-        <v>905</v>
+        <v>872</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B384" s="33" t="s">
-        <v>906</v>
+        <v>900</v>
+      </c>
+      <c r="C384" s="107" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D384" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E384" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F384" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="385" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B385" s="33" t="s">
+        <v>903</v>
+      </c>
+      <c r="C385" s="107" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D385" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E385" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F385" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B386" s="33" t="s">
+        <v>906</v>
+      </c>
+      <c r="C386" s="107" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D386" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E386" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F386" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B387" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="F385" t="s">
+      <c r="C387" s="107" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D387" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E387" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F387" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="386" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B386" s="33" t="s">
+    <row r="388" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B388" s="33" t="s">
         <v>915</v>
       </c>
-      <c r="F386" t="s">
+      <c r="C388" s="107" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D388" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E388" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F388" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="387" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B387" s="33" t="s">
+    <row r="389" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B389" s="33" t="s">
         <v>918</v>
       </c>
-      <c r="F387" t="s">
+      <c r="C389" s="107" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D389" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E389" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F389" t="s">
         <v>920</v>
-      </c>
-    </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B388" s="33" t="s">
-        <v>921</v>
-      </c>
-      <c r="F388" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B389" s="33" t="s">
-        <v>924</v>
-      </c>
-      <c r="F389" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B390" s="33" t="s">
-        <v>927</v>
+        <v>921</v>
+      </c>
+      <c r="C390" s="107" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D390" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E390" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F390" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B391" s="33" t="s">
-        <v>940</v>
+        <v>924</v>
+      </c>
+      <c r="C391" s="107" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D391" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E391" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F391" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
     </row>
     <row r="392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B392" s="33" t="s">
-        <v>943</v>
+        <v>927</v>
+      </c>
+      <c r="C392" s="107" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D392" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E392" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F392" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
     </row>
     <row r="393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B393" s="33" t="s">
-        <v>1232</v>
+        <v>940</v>
+      </c>
+      <c r="C393" s="107" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D393" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E393" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F393" t="s">
-        <v>1234</v>
+        <v>942</v>
       </c>
     </row>
     <row r="394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B394" s="33" t="s">
+        <v>943</v>
+      </c>
+      <c r="C394" s="107" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D394" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E394" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F394" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B395" s="33" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C395" s="107" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D395" s="107" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E395" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F395" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B396" s="33" t="s">
         <v>1235</v>
       </c>
-      <c r="F394" t="s">
+      <c r="C396" s="107" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D396" s="107" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E396" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F396" t="s">
         <v>1237</v>
-      </c>
-    </row>
-    <row r="395" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B395" s="33" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F395" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="396" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B396" s="33" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F396" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="397" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B397" s="33" t="s">
-        <v>1244</v>
+        <v>1238</v>
+      </c>
+      <c r="C397" s="107" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D397" s="107" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E397" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F397" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="398" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B398" s="33" t="s">
-        <v>1247</v>
+        <v>1241</v>
+      </c>
+      <c r="C398" s="107" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D398" s="107" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E398" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F398" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="399" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B399" s="33" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C399" s="107" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D399" s="107" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E399" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F399" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B400" s="33" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C400" s="107" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D400" s="107" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E400" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F400" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="401" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B401" s="33" t="s">
         <v>826</v>
       </c>
-      <c r="F399" t="s">
+      <c r="C401" s="107" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D401" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E401" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F401" t="s">
         <v>827</v>
-      </c>
-    </row>
-    <row r="400" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B400" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="F400" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B401" s="33" t="s">
-        <v>868</v>
-      </c>
-      <c r="F401" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="402" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B402" s="33" t="s">
-        <v>873</v>
+        <v>828</v>
+      </c>
+      <c r="C402" s="107" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D402" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E402" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F402" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="403" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B403" s="33" t="s">
-        <v>875</v>
+        <v>868</v>
+      </c>
+      <c r="C403" s="107" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D403" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E403" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F403" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="404" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B404" s="33" t="s">
-        <v>877</v>
+        <v>873</v>
+      </c>
+      <c r="C404" s="107" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D404" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E404" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F404" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="405" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B405" s="33" t="s">
-        <v>930</v>
+        <v>875</v>
+      </c>
+      <c r="C405" s="107" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D405" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E405" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F405" t="s">
-        <v>931</v>
+        <v>876</v>
       </c>
     </row>
     <row r="406" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B406" s="33" t="s">
-        <v>932</v>
+        <v>877</v>
+      </c>
+      <c r="C406" s="107" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D406" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E406" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F406" t="s">
-        <v>933</v>
+        <v>878</v>
       </c>
     </row>
     <row r="407" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B407" s="33" t="s">
-        <v>934</v>
+        <v>930</v>
+      </c>
+      <c r="C407" s="107" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D407" s="107" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E407" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F407" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="408" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B408" s="33" t="s">
-        <v>936</v>
+        <v>932</v>
+      </c>
+      <c r="C408" s="107" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D408" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E408" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F408" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="409" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B409" s="33" t="s">
+        <v>934</v>
+      </c>
+      <c r="C409" s="107" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D409" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E409" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F409" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="410" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B410" s="33" t="s">
+        <v>936</v>
+      </c>
+      <c r="C410" s="107" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D410" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E410" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F410" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="411" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B411" s="33" t="s">
         <v>938</v>
       </c>
-      <c r="F409" t="s">
+      <c r="C411" s="107" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D411" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E411" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F411" t="s">
         <v>939</v>
-      </c>
-    </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B410" s="33" t="s">
-        <v>946</v>
-      </c>
-      <c r="F410" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B411" s="33" t="s">
-        <v>948</v>
-      </c>
-      <c r="F411" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="412" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B412" s="33" t="s">
-        <v>950</v>
+        <v>946</v>
+      </c>
+      <c r="C412" s="107" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D412" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E412" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F412" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B413" s="33" t="s">
-        <v>952</v>
+        <v>948</v>
+      </c>
+      <c r="C413" s="107" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D413" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E413" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="F413" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="414" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B414" s="33" t="s">
-        <v>1225</v>
+        <v>950</v>
+      </c>
+      <c r="C414" s="107" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D414" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E414" s="33" t="s">
+        <v>1421</v>
       </c>
       <c r="F414" t="s">
-        <v>1226</v>
+        <v>951</v>
       </c>
     </row>
     <row r="415" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B415" s="33" t="s">
+        <v>952</v>
+      </c>
+      <c r="C415" s="107" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D415" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E415" s="33" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F415" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="416" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B416" s="33" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C416" s="107" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D416" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E416" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F416" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B417" s="33" t="s">
         <v>1227</v>
       </c>
-      <c r="F415" t="s">
+      <c r="C417" s="107" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D417" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E417" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F417" t="s">
         <v>1228</v>
-      </c>
-    </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B416" s="33" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F416" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B418" s="33" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C418" s="107" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D418" s="107" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E418" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F418" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B420" s="33" t="s">
         <v>1140</v>
       </c>
-      <c r="F418" t="s">
+      <c r="C420" s="107" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D420" s="107" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E420" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F420" t="s">
         <v>1143</v>
       </c>
     </row>

--- a/Variables_of_Interest.xlsx
+++ b/Variables_of_Interest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C880E7-DB72-4031-9B0F-8272F118B65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895562BE-EB09-4E36-A297-93E43E7DA019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2205" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1545" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outcome Variables" sheetId="2" r:id="rId1"/>
@@ -565,7 +565,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9167" uniqueCount="2005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9167" uniqueCount="2004">
   <si>
     <t>Wave I</t>
   </si>
@@ -6508,9 +6508,6 @@
   </si>
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>Variable</t>
   </si>
   <si>
     <t>Variable Description</t>
@@ -10305,8 +10302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC527C8-F3E3-4E08-93D4-30E7EF640FEC}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10316,7 +10313,7 @@
     <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -10325,7 +10322,7 @@
         <v>1980</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1472</v>
@@ -10337,7 +10334,7 @@
         <v>1410</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1981</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10569,7 +10566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E91241-5C1E-AE4D-8583-A4D88238CB65}">
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="R37" sqref="R37"/>
     </sheetView>
@@ -12522,7 +12519,7 @@
     </row>
     <row r="47" spans="1:28" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="78" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B47" s="87"/>
       <c r="C47" s="87"/>
@@ -13730,7 +13727,7 @@
         <v>1964</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D15" s="80" t="s">
         <v>553</v>
@@ -13756,7 +13753,7 @@
         <v>1964</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D16" s="80" t="s">
         <v>559</v>
@@ -13782,7 +13779,7 @@
         <v>1964</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D17" s="80" t="s">
         <v>562</v>
@@ -13808,7 +13805,7 @@
         <v>1964</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D18" s="80" t="s">
         <v>564</v>
@@ -13834,7 +13831,7 @@
         <v>1964</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D19" s="80" t="s">
         <v>567</v>
@@ -13860,7 +13857,7 @@
         <v>1964</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D20" s="80" t="s">
         <v>569</v>
@@ -13886,7 +13883,7 @@
         <v>1964</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D21" s="80" t="s">
         <v>575</v>
@@ -13912,7 +13909,7 @@
         <v>1964</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D22" s="80" t="s">
         <v>581</v>
@@ -13938,7 +13935,7 @@
         <v>1964</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D23" s="80" t="s">
         <v>587</v>
@@ -13964,7 +13961,7 @@
         <v>1964</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D24" s="80" t="s">
         <v>591</v>
@@ -13990,7 +13987,7 @@
         <v>1964</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D25" s="80" t="s">
         <v>597</v>
@@ -14016,7 +14013,7 @@
         <v>1964</v>
       </c>
       <c r="C26" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D26" s="80" t="s">
         <v>603</v>
@@ -14380,7 +14377,7 @@
         <v>1950</v>
       </c>
       <c r="C40" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D40" s="80" t="s">
         <v>553</v>
@@ -14406,7 +14403,7 @@
         <v>1950</v>
       </c>
       <c r="C41" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D41" s="80" t="s">
         <v>559</v>
@@ -14432,7 +14429,7 @@
         <v>1950</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D42" s="80" t="s">
         <v>569</v>
@@ -14458,7 +14455,7 @@
         <v>1950</v>
       </c>
       <c r="C43" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D43" s="80" t="s">
         <v>575</v>
@@ -14484,7 +14481,7 @@
         <v>1950</v>
       </c>
       <c r="C44" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D44" s="80" t="s">
         <v>581</v>
@@ -14510,7 +14507,7 @@
         <v>1950</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D45" s="80" t="s">
         <v>587</v>
@@ -14536,7 +14533,7 @@
         <v>1950</v>
       </c>
       <c r="C46" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D46" s="80" t="s">
         <v>591</v>
@@ -14562,7 +14559,7 @@
         <v>1950</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D47" s="80" t="s">
         <v>597</v>
@@ -14588,7 +14585,7 @@
         <v>1950</v>
       </c>
       <c r="C48" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D48" s="80" t="s">
         <v>603</v>
@@ -15524,7 +15521,7 @@
         <v>1951</v>
       </c>
       <c r="C84" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D84" s="80" t="s">
         <v>553</v>
@@ -15550,7 +15547,7 @@
         <v>1951</v>
       </c>
       <c r="C85" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D85" s="80" t="s">
         <v>569</v>
@@ -15576,7 +15573,7 @@
         <v>1951</v>
       </c>
       <c r="C86" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D86" s="80" t="s">
         <v>575</v>
@@ -15602,7 +15599,7 @@
         <v>1951</v>
       </c>
       <c r="C87" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D87" s="80" t="s">
         <v>581</v>
@@ -15628,7 +15625,7 @@
         <v>1951</v>
       </c>
       <c r="C88" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D88" s="80" t="s">
         <v>591</v>
@@ -15654,7 +15651,7 @@
         <v>1951</v>
       </c>
       <c r="C89" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D89" s="80" t="s">
         <v>597</v>
@@ -15680,7 +15677,7 @@
         <v>1951</v>
       </c>
       <c r="C90" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D90" s="80" t="s">
         <v>603</v>
@@ -15706,7 +15703,7 @@
         <v>1951</v>
       </c>
       <c r="C91" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D91" s="80" t="s">
         <v>607</v>
@@ -16252,7 +16249,7 @@
         <v>1955</v>
       </c>
       <c r="C112" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D112" s="80" t="s">
         <v>553</v>
@@ -16278,7 +16275,7 @@
         <v>1955</v>
       </c>
       <c r="C113" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D113" s="80" t="s">
         <v>569</v>
@@ -16304,7 +16301,7 @@
         <v>1955</v>
       </c>
       <c r="C114" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D114" s="80" t="s">
         <v>575</v>
@@ -16330,7 +16327,7 @@
         <v>1955</v>
       </c>
       <c r="C115" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D115" s="80" t="s">
         <v>581</v>
@@ -16356,7 +16353,7 @@
         <v>1955</v>
       </c>
       <c r="C116" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D116" s="80" t="s">
         <v>596</v>
@@ -16382,7 +16379,7 @@
         <v>1955</v>
       </c>
       <c r="C117" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D117" s="80" t="s">
         <v>597</v>
@@ -16408,7 +16405,7 @@
         <v>1955</v>
       </c>
       <c r="C118" s="82" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D118" s="80" t="s">
         <v>609</v>
@@ -16456,7 +16453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3F7A32-2A24-9143-AA8A-5502F5BABBAF}">
   <dimension ref="A1:AB230"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B166" sqref="B166"/>
     </sheetView>
@@ -38426,7 +38423,7 @@
         <v>1411</v>
       </c>
       <c r="F251" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -38446,7 +38443,7 @@
         <v>1411</v>
       </c>
       <c r="F252" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -38466,7 +38463,7 @@
         <v>1411</v>
       </c>
       <c r="F253" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -38486,7 +38483,7 @@
         <v>1411</v>
       </c>
       <c r="F254" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38506,7 +38503,7 @@
         <v>1411</v>
       </c>
       <c r="F255" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38526,7 +38523,7 @@
         <v>1411</v>
       </c>
       <c r="F256" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -38546,7 +38543,7 @@
         <v>1411</v>
       </c>
       <c r="F257" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -38566,7 +38563,7 @@
         <v>1411</v>
       </c>
       <c r="F258" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -38586,7 +38583,7 @@
         <v>1411</v>
       </c>
       <c r="F259" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -38606,7 +38603,7 @@
         <v>1411</v>
       </c>
       <c r="F260" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38626,7 +38623,7 @@
         <v>1411</v>
       </c>
       <c r="F261" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -38646,7 +38643,7 @@
         <v>1411</v>
       </c>
       <c r="F262" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40786,7 +40783,7 @@
         <v>1411</v>
       </c>
       <c r="F369" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40806,7 +40803,7 @@
         <v>1411</v>
       </c>
       <c r="F370" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -40826,7 +40823,7 @@
         <v>1411</v>
       </c>
       <c r="F371" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -40846,7 +40843,7 @@
         <v>1411</v>
       </c>
       <c r="F372" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -40866,7 +40863,7 @@
         <v>1411</v>
       </c>
       <c r="F373" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -40886,7 +40883,7 @@
         <v>1411</v>
       </c>
       <c r="F374" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -40906,7 +40903,7 @@
         <v>1411</v>
       </c>
       <c r="F375" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -40926,7 +40923,7 @@
         <v>1411</v>
       </c>
       <c r="F376" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -40946,7 +40943,7 @@
         <v>1411</v>
       </c>
       <c r="F377" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">

--- a/Variables_of_Interest.xlsx
+++ b/Variables_of_Interest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895562BE-EB09-4E36-A297-93E43E7DA019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6769A3E4-BE78-4B4B-B0BE-9EF06D97F291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1545" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outcome Variables" sheetId="2" r:id="rId1"/>
@@ -565,7 +565,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9167" uniqueCount="2004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9195" uniqueCount="2008">
   <si>
     <t>Wave I</t>
   </si>
@@ -6577,6 +6577,18 @@
   </si>
   <si>
     <t>Behavioral Despair</t>
+  </si>
+  <si>
+    <t>h5to11</t>
+  </si>
+  <si>
+    <t>Have you ever had a drink of beer, wine, or liquor?</t>
+  </si>
+  <si>
+    <t>What sex were you assigned at birth, on your original birth certificate?</t>
+  </si>
+  <si>
+    <t>h5od2a</t>
   </si>
 </sst>
 </file>
@@ -6661,7 +6673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -7015,6 +7027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7501,8 +7514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+    <sheetView topLeftCell="B1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10300,10 +10313,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC527C8-F3E3-4E08-93D4-30E7EF640FEC}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10312,7 +10325,7 @@
     <col min="2" max="2" width="68.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -10555,6 +10568,100 @@
       </c>
       <c r="F13" s="6" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B17" s="126" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B18" s="126" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C18" s="127" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>2007</v>
       </c>
     </row>
   </sheetData>
@@ -13339,7 +13446,7 @@
   <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Variables_of_Interest.xlsx
+++ b/Variables_of_Interest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E1A65E-0784-492D-81D4-0A212E7CFA65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DB7162-3026-412B-BA9A-ACDE6C725BE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outcome Variables" sheetId="2" r:id="rId1"/>
@@ -566,7 +566,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9436" uniqueCount="2050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9450" uniqueCount="2054">
   <si>
     <t>Wave I</t>
   </si>
@@ -6716,6 +6716,18 @@
   </si>
   <si>
     <t>H5HTENJC</t>
+  </si>
+  <si>
+    <t>Demographic</t>
+  </si>
+  <si>
+    <t>Biological Sex</t>
+  </si>
+  <si>
+    <t>BIO_SEX</t>
+  </si>
+  <si>
+    <t>ONE_RACE5</t>
   </si>
 </sst>
 </file>
@@ -14410,8 +14422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB5158D-4C91-4CCC-8E26-A99C222AA021}">
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17495,8 +17507,51 @@
         <v>1614</v>
       </c>
     </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="116" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D119" s="58" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E119" s="49" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F119" s="49" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G119" s="49" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H119" s="49" t="s">
+        <v>2052</v>
+      </c>
+    </row>
     <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="82"/>
+      <c r="A120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="82" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D120" s="80" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E120" s="99" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F120" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" s="96" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H120" s="21" t="s">
+        <v>2053</v>
+      </c>
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C121" s="82"/>
@@ -17517,7 +17572,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17525,7 +17581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3F7A32-2A24-9143-AA8A-5502F5BABBAF}">
   <dimension ref="A1:AB230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="U218" sqref="U218"/>
     </sheetView>

--- a/Variables_of_Interest.xlsx
+++ b/Variables_of_Interest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DB7162-3026-412B-BA9A-ACDE6C725BE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BD25A5-751C-4B8C-A2E2-B4A8FE1E6ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outcome Variables" sheetId="2" r:id="rId1"/>
@@ -566,7 +566,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9450" uniqueCount="2054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9464" uniqueCount="2054">
   <si>
     <t>Wave I</t>
   </si>
@@ -10452,10 +10452,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D83563-E816-4E6C-A07D-139DD8EBC125}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11278,6 +11278,52 @@
       </c>
       <c r="G36" s="58" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="58" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="58" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G38" s="58" t="s">
+        <v>2053</v>
       </c>
     </row>
   </sheetData>
@@ -14422,7 +14468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB5158D-4C91-4CCC-8E26-A99C222AA021}">
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>

--- a/Variables_of_Interest.xlsx
+++ b/Variables_of_Interest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BD25A5-751C-4B8C-A2E2-B4A8FE1E6ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515943F2-4241-4D81-9D06-23D68B203CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outcome Variables" sheetId="2" r:id="rId1"/>
@@ -6604,9 +6604,6 @@
     <t>h5id6h</t>
   </si>
   <si>
-    <t>h5cj1d</t>
-  </si>
-  <si>
     <t>h5cj4c</t>
   </si>
   <si>
@@ -6728,6 +6725,9 @@
   </si>
   <si>
     <t>ONE_RACE5</t>
+  </si>
+  <si>
+    <t>h5cj1c</t>
   </si>
 </sst>
 </file>
@@ -10454,8 +10454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D83563-E816-4E6C-A07D-139DD8EBC125}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10501,7 +10501,7 @@
         <v>857</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>1471</v>
@@ -10524,7 +10524,7 @@
         <v>857</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D3" s="58" t="s">
         <v>1471</v>
@@ -10547,7 +10547,7 @@
         <v>857</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D4" s="58" t="s">
         <v>1471</v>
@@ -10570,7 +10570,7 @@
         <v>857</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>1492</v>
@@ -10593,7 +10593,7 @@
         <v>857</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D6" s="58" t="s">
         <v>1471</v>
@@ -10616,7 +10616,7 @@
         <v>857</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>1472</v>
@@ -10639,7 +10639,7 @@
         <v>857</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>1515</v>
@@ -10662,7 +10662,7 @@
         <v>857</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D9" s="58" t="s">
         <v>1471</v>
@@ -10685,7 +10685,7 @@
         <v>857</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D10" s="58" t="s">
         <v>1580</v>
@@ -10708,10 +10708,10 @@
         <v>857</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>1405</v>
@@ -10731,7 +10731,7 @@
         <v>1999</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D12" s="58" t="s">
         <v>1471</v>
@@ -10751,7 +10751,7 @@
         <v>1999</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D13" s="58" t="s">
         <v>1471</v>
@@ -10774,7 +10774,7 @@
         <v>1999</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D14" s="58" t="s">
         <v>1471</v>
@@ -10794,7 +10794,7 @@
         <v>1999</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D15" s="58" t="s">
         <v>1471</v>
@@ -10814,7 +10814,7 @@
         <v>1999</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>1471</v>
@@ -10823,7 +10823,7 @@
         <v>1406</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -10834,7 +10834,7 @@
         <v>2000</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D17" s="58" t="s">
         <v>1471</v>
@@ -10843,7 +10843,7 @@
         <v>1406</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>2012</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -10854,7 +10854,7 @@
         <v>2000</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D18" s="58" t="s">
         <v>1471</v>
@@ -10866,7 +10866,7 @@
         <v>1406</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -10877,7 +10877,7 @@
         <v>2000</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>1475</v>
@@ -10889,7 +10889,7 @@
         <v>1408</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -10900,7 +10900,7 @@
         <v>2000</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D20" s="58" t="s">
         <v>1516</v>
@@ -10912,7 +10912,7 @@
         <v>1408</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -10923,7 +10923,7 @@
         <v>2000</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D21" s="58" t="s">
         <v>1471</v>
@@ -10935,7 +10935,7 @@
         <v>1406</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -10946,7 +10946,7 @@
         <v>2000</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D22" s="58" t="s">
         <v>1475</v>
@@ -10958,7 +10958,7 @@
         <v>1408</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -10969,7 +10969,7 @@
         <v>2000</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D23" s="58" t="s">
         <v>1496</v>
@@ -10981,7 +10981,7 @@
         <v>1408</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -10992,7 +10992,7 @@
         <v>2000</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>1471</v>
@@ -11015,7 +11015,7 @@
         <v>2000</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D25" s="58" t="s">
         <v>1471</v>
@@ -11038,7 +11038,7 @@
         <v>2000</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>1471</v>
@@ -11061,7 +11061,7 @@
         <v>2001</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>1471</v>
@@ -11070,7 +11070,7 @@
         <v>1406</v>
       </c>
       <c r="G27" s="58" t="s">
-        <v>2012</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -11081,7 +11081,7 @@
         <v>2001</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D28" s="58" t="s">
         <v>1471</v>
@@ -11093,7 +11093,7 @@
         <v>1406</v>
       </c>
       <c r="G28" s="58" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -11104,7 +11104,7 @@
         <v>2001</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D29" s="58" t="s">
         <v>1475</v>
@@ -11116,7 +11116,7 @@
         <v>1408</v>
       </c>
       <c r="G29" s="58" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -11127,7 +11127,7 @@
         <v>2001</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D30" s="58" t="s">
         <v>1516</v>
@@ -11139,7 +11139,7 @@
         <v>1408</v>
       </c>
       <c r="G30" s="58" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -11150,7 +11150,7 @@
         <v>2001</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D31" s="58" t="s">
         <v>1471</v>
@@ -11162,7 +11162,7 @@
         <v>1406</v>
       </c>
       <c r="G31" s="58" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -11173,7 +11173,7 @@
         <v>2001</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D32" s="58" t="s">
         <v>1475</v>
@@ -11185,7 +11185,7 @@
         <v>1408</v>
       </c>
       <c r="G32" s="58" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -11196,7 +11196,7 @@
         <v>2001</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D33" s="58" t="s">
         <v>1496</v>
@@ -11208,7 +11208,7 @@
         <v>1408</v>
       </c>
       <c r="G33" s="58" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -11219,7 +11219,7 @@
         <v>2001</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D34" s="58" t="s">
         <v>1471</v>
@@ -11242,7 +11242,7 @@
         <v>2001</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D35" s="58" t="s">
         <v>1471</v>
@@ -11265,7 +11265,7 @@
         <v>2001</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D36" s="58" t="s">
         <v>1471</v>
@@ -11285,10 +11285,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="58" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C37" s="58" t="s">
         <v>2050</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>2051</v>
       </c>
       <c r="D37" s="58" t="s">
         <v>1471</v>
@@ -11300,7 +11300,7 @@
         <v>1406</v>
       </c>
       <c r="G37" s="58" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -11308,7 +11308,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C38" s="58" t="s">
         <v>1362</v>
@@ -11323,7 +11323,7 @@
         <v>1406</v>
       </c>
       <c r="G38" s="58" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
   </sheetData>
@@ -11698,7 +11698,7 @@
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U46" sqref="U46"/>
+      <selection pane="topRight" activeCell="U62" sqref="U62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13644,7 +13644,7 @@
         <v>1406</v>
       </c>
       <c r="U45" s="29" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -14016,7 +14016,7 @@
         <v>1406</v>
       </c>
       <c r="U54" s="20" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="V54" s="20"/>
       <c r="W54" s="20"/>
@@ -14469,7 +14469,7 @@
   <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17368,7 +17368,7 @@
         <v>1406</v>
       </c>
       <c r="H111" s="48" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17446,7 +17446,7 @@
         <v>1406</v>
       </c>
       <c r="H114" s="21" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17558,10 +17558,10 @@
         <v>0</v>
       </c>
       <c r="C119" s="116" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D119" s="58" t="s">
         <v>2050</v>
-      </c>
-      <c r="D119" s="58" t="s">
-        <v>2051</v>
       </c>
       <c r="E119" s="49" t="s">
         <v>1471</v>
@@ -17573,7 +17573,7 @@
         <v>1406</v>
       </c>
       <c r="H119" s="49" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17581,7 +17581,7 @@
         <v>4</v>
       </c>
       <c r="C120" s="82" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D120" s="80" t="s">
         <v>1362</v>
@@ -17596,7 +17596,7 @@
         <v>1406</v>
       </c>
       <c r="H120" s="21" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -23816,7 +23816,7 @@
         <v>1406</v>
       </c>
       <c r="P225" s="20" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="226" spans="1:24" x14ac:dyDescent="0.3">
@@ -28073,7 +28073,7 @@
         <v>1406</v>
       </c>
       <c r="H161" s="21" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -30869,7 +30869,7 @@
         <v>1406</v>
       </c>
       <c r="H269" s="21" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
@@ -30895,7 +30895,7 @@
         <v>1406</v>
       </c>
       <c r="H270" s="21" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -30921,7 +30921,7 @@
         <v>1406</v>
       </c>
       <c r="H271" s="21" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -30947,7 +30947,7 @@
         <v>1406</v>
       </c>
       <c r="H272" s="21" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
@@ -30973,7 +30973,7 @@
         <v>1406</v>
       </c>
       <c r="H273" s="21" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
